--- a/Observaciones.xlsx
+++ b/Observaciones.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="444">
   <si>
     <t>List</t>
   </si>
@@ -136,6 +136,18 @@
   </si>
   <si>
     <t>https://trello.com/c/Q8FOrlj8</t>
+  </si>
+  <si>
+    <t>[archived] Unit Testing Javascript</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Epic</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/xGIFERFp</t>
   </si>
   <si>
     <t>[archived] Reportar fallas en reportes</t>
@@ -184,6 +196,12 @@
     <t>https://trello.com/c/2zSFIDMR</t>
   </si>
   <si>
+    <t>[archived] Unit Testing ASP MVC</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/D0dC1JeZ</t>
+  </si>
+  <si>
     <t>[archived] Story: (8) Como un [actor], [quiero], [acción] para [logro]</t>
   </si>
   <si>
@@ -238,6 +256,15 @@
     <t>https://trello.com/c/Zh9ndQvB</t>
   </si>
   <si>
+    <t>Correccion en oficio de designacion de enlace unico</t>
+  </si>
+  <si>
+    <t>Task,Municipios</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/R0qoXK9J</t>
+  </si>
+  <si>
     <t>Como usuario auditor, quisiera poder generar oficio de Sustitucion</t>
   </si>
   <si>
@@ -269,6 +296,9 @@
   </si>
   <si>
     <t>Task: Validar en observaciones vencidas los correos de noreplay gmail que ahora sean de isaf.gob.mx</t>
+  </si>
+  <si>
+    <t>Task,Sistema</t>
   </si>
   <si>
     <t>https://trello.com/c/kTPf6RDZ</t>
@@ -291,12 +321,18 @@
 **EXPECTED:** No debe aparecer ese mensaje</t>
   </si>
   <si>
+    <t>Bug,Sistema</t>
+  </si>
+  <si>
     <t>https://trello.com/c/5pGR7Atu</t>
   </si>
   <si>
     <t>Como usuario de seguimiento quisiera ver las observaciones pendientes de atender en la pagina de bienvenida.</t>
   </si>
   <si>
+    <t>Story,Sistema</t>
+  </si>
+  <si>
     <t>https://trello.com/c/PLhmCSFs</t>
   </si>
   <si>
@@ -309,6 +345,9 @@
     <t>Como usuario auditor quiero tener un reporte de formato transparencia</t>
   </si>
   <si>
+    <t>Story,Calidad</t>
+  </si>
+  <si>
     <t>https://trello.com/c/QspTS9Qc</t>
   </si>
   <si>
@@ -316,6 +355,9 @@
   </si>
   <si>
     <t>Agregar el periodo al momento de generar la auditoria y revisar que la auditoria se genere con el mismo id</t>
+  </si>
+  <si>
+    <t>Estado,Story</t>
   </si>
   <si>
     <t>https://trello.com/c/rIeT0pOM</t>
@@ -350,16 +392,6 @@
   </si>
   <si>
     <t>https://trello.com/c/vjZKCWzC</t>
-  </si>
-  <si>
-    <t>Como auditor quisiera que el oficio de notificacion muestre el periodo de inicio de auditoria</t>
-  </si>
-  <si>
-    <t>Debera mostrarse este dato en alguna parte visible de la auditoria/planeacion
-</t>
-  </si>
-  <si>
-    <t>https://trello.com/c/njfXoVcX</t>
   </si>
   <si>
     <t>Como usuario auditor quisiera que las cedulas no se puedan modificar cuando tienen rubrica</t>
@@ -383,6 +415,9 @@
 Oficio de Comisión (ISAF/DGAOP/10987/2020)
 Elaboró: Israel Alarcón Torres
 a la auditoria  2017OP0105010072</t>
+  </si>
+  <si>
+    <t>Task,Obras</t>
   </si>
   <si>
     <t>https://trello.com/c/vIpW94Ii</t>
@@ -401,6 +436,9 @@
 **EXPECTED:**  Si no hay evidencia, no se deberia mostrar el documento</t>
   </si>
   <si>
+    <t>Bug,Estado</t>
+  </si>
+  <si>
     <t>https://trello.com/c/lUgUMego</t>
   </si>
   <si>
@@ -526,9 +564,6 @@
     <t>Como usuario auditor quisiera recibir un correo cuando se cargue un Documentos de Auditoría enviar correo a todos los auditores (proyecto notificaciones)</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>https://trello.com/c/LMFcNSkg</t>
   </si>
   <si>
@@ -611,7 +646,7 @@
 Limites para subir documentos, etc</t>
   </si>
   <si>
-    <t>Epic</t>
+    <t>Epic,Calidad</t>
   </si>
   <si>
     <t>https://trello.com/c/5NumlGyR</t>
@@ -641,9 +676,6 @@
     <t>Como usuario auditor de obras quisiera reportes parecidos a los de xr</t>
   </si>
   <si>
-    <t>Story,Calidad</t>
-  </si>
-  <si>
     <t>https://trello.com/c/8QEWx9fK</t>
   </si>
   <si>
@@ -660,18 +692,6 @@
   </si>
   <si>
     <t>https://trello.com/c/HKtOBY0f</t>
-  </si>
-  <si>
-    <t>Unit Testing Javascript</t>
-  </si>
-  <si>
-    <t>https://trello.com/c/xGIFERFp</t>
-  </si>
-  <si>
-    <t>Unit Testing ASP MVC</t>
-  </si>
-  <si>
-    <t>https://trello.com/c/D0dC1JeZ</t>
   </si>
   <si>
     <t>Sprint Backlog</t>
@@ -706,12 +726,6 @@
     <t>https://trello.com/c/pkkrZwjA</t>
   </si>
   <si>
-    <t>Como usuario auditor, quiero poder marcar las auditorias como solicitadas y de tiempo real.</t>
-  </si>
-  <si>
-    <t>https://trello.com/c/zuY0n21d</t>
-  </si>
-  <si>
     <t>Como un auditor, quiero que la redaccion del oficio de notificacion cambie cuando la auditoria es en tiempo real</t>
   </si>
   <si>
@@ -737,12 +751,6 @@
   </si>
   <si>
     <t>https://trello.com/c/kjwTK1Jn</t>
-  </si>
-  <si>
-    <t>Como usuario del sistema, quisiera que al dar de alta un nuevo funcionario me diera un aviso si ya hay uno con el mismo nombre.</t>
-  </si>
-  <si>
-    <t>https://trello.com/c/NnawuvfU</t>
   </si>
   <si>
     <t>Dar un curso de plantillas de observaciones a directores de Estado (Fecha por definir)</t>
@@ -811,10 +819,32 @@
     <t>https://trello.com/c/RHrB8hx2</t>
   </si>
   <si>
-    <t>Micrositio de reuniones de reincidencias</t>
-  </si>
-  <si>
-    <t>https://trello.com/c/VK6odcKL</t>
+    <t>Como usuario del sistema, quisiera que al dar de alta un nuevo funcionario me diera un aviso si ya hay uno con el mismo nombre.</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/NnawuvfU</t>
+  </si>
+  <si>
+    <t>Como usuario auditor, quiero poder marcar las auditorias como de tiempo real.</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/zuY0n21d</t>
+  </si>
+  <si>
+    <t>Como auditor quisiera que el oficio de notificacion muestre el periodo de inicio de auditoria</t>
+  </si>
+  <si>
+    <t>Debera mostrarse este dato en alguna parte visible de la auditoria/planeacion
+</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/njfXoVcX</t>
   </si>
   <si>
     <t>Code Review</t>
@@ -858,10 +888,25 @@
     <t>https://trello.com/c/ScVYCG8T</t>
   </si>
   <si>
+    <t>Micrositio de reuniones de reincidencias</t>
+  </si>
+  <si>
+    <t>Task,Mayor</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/VK6odcKL</t>
+  </si>
+  <si>
+    <t>Micrositio Auditoria en tiempo Real</t>
+  </si>
+  <si>
+    <t>Story,Mayor</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/KQREsORe</t>
+  </si>
+  <si>
     <t>Cuando se agrega un funcionario, marcar por default la casilla de que trabaja actualmente en la dependencia.</t>
-  </si>
-  <si>
-    <t>MG</t>
   </si>
   <si>
     <t>https://trello.com/c/HqKq7BYy</t>
@@ -910,9 +955,6 @@
   </si>
   <si>
     <t>Task: Acta de Precierre de Desempeño</t>
-  </si>
-  <si>
-    <t>DR</t>
   </si>
   <si>
     <t>https://trello.com/c/3mdsqMBM</t>
@@ -1262,9 +1304,6 @@
 atte. C.P. Gabriel Miranda BojórquezSubdirector de Fiscalización a Municipios</t>
   </si>
   <si>
-    <t>Task,Municipios</t>
-  </si>
-  <si>
     <t>https://trello.com/c/eQnTsJrz</t>
   </si>
   <si>
@@ -1466,9 +1505,6 @@
 3.- Descargar reporte
 **BUG:** El reporte no se descarga en ocasiones que la memoria de la aplicacion esta comprometida
 **EXPECTED:** Que el reporte se descargue siempre</t>
-  </si>
-  <si>
-    <t>Bug,Estado</t>
   </si>
   <si>
     <t>https://trello.com/c/VTPsoYQG</t>
@@ -1945,7 +1981,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1">
         <v/>
@@ -1960,13 +1996,13 @@
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H2" s="1">
         <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" x14ac:dyDescent="0.25">
@@ -1974,10 +2010,10 @@
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1">
         <v/>
@@ -1995,7 +2031,7 @@
         <v>5</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" x14ac:dyDescent="0.25">
@@ -2003,13 +2039,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C4" s="1">
         <v/>
       </c>
       <c r="D4" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
         <v/>
@@ -2018,13 +2054,13 @@
         <v/>
       </c>
       <c r="G4" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="H4" s="1">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" x14ac:dyDescent="0.25">
@@ -2032,7 +2068,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C5" s="1">
         <v/>
@@ -2047,13 +2083,13 @@
         <v/>
       </c>
       <c r="G5" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H5" s="1">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" x14ac:dyDescent="0.25">
@@ -2061,13 +2097,13 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
+      </c>
+      <c r="C6" s="1">
+        <v/>
       </c>
       <c r="D6" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E6" s="1">
         <v/>
@@ -2076,13 +2112,13 @@
         <v/>
       </c>
       <c r="G6" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H6" s="1">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" x14ac:dyDescent="0.25">
@@ -2090,13 +2126,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E7" s="1">
         <v/>
@@ -2105,13 +2141,13 @@
         <v/>
       </c>
       <c r="G7" s="1" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="H7" s="1">
-        <v>63</v>
+        <v>159</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" x14ac:dyDescent="0.25">
@@ -2119,13 +2155,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
         <v/>
@@ -2134,13 +2170,13 @@
         <v/>
       </c>
       <c r="G8" s="1" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="H8" s="1">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" x14ac:dyDescent="0.25">
@@ -2148,13 +2184,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1">
         <v/>
@@ -2163,13 +2199,13 @@
         <v/>
       </c>
       <c r="G9" s="1" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="H9" s="1">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" x14ac:dyDescent="0.25">
@@ -2177,10 +2213,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="1">
-        <v/>
+        <v>79</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="D10" s="1">
         <v>3</v>
@@ -2192,13 +2228,13 @@
         <v/>
       </c>
       <c r="G10" s="1" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="H10" s="1">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" x14ac:dyDescent="0.25">
@@ -2206,13 +2242,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>83</v>
+      </c>
+      <c r="C11" s="1">
+        <v/>
       </c>
       <c r="D11" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E11" s="1">
         <v/>
@@ -2221,13 +2257,13 @@
         <v/>
       </c>
       <c r="G11" s="1" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="H11" s="1">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" x14ac:dyDescent="0.25">
@@ -2235,10 +2271,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1">
         <v>5</v>
@@ -2250,13 +2286,13 @@
         <v/>
       </c>
       <c r="G12" s="1" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="H12" s="1">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" x14ac:dyDescent="0.25">
@@ -2264,13 +2300,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="D13" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E13" s="1">
         <v/>
@@ -2278,14 +2314,14 @@
       <c r="F13" s="1">
         <v/>
       </c>
-      <c r="G13" s="1">
-        <v/>
+      <c r="G13" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="H13" s="1">
-        <v>138</v>
+        <v>53</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" x14ac:dyDescent="0.25">
@@ -2293,13 +2329,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D14" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E14" s="1">
         <v/>
@@ -2308,13 +2344,13 @@
         <v/>
       </c>
       <c r="G14" s="1" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="H14" s="1">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" x14ac:dyDescent="0.25">
@@ -2322,10 +2358,10 @@
         <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="1">
-        <v/>
+        <v>95</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="D15" s="1">
         <v>5</v>
@@ -2337,13 +2373,13 @@
         <v/>
       </c>
       <c r="G15" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="H15" s="1">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" x14ac:dyDescent="0.25">
@@ -2351,28 +2387,28 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C16" s="1">
         <v/>
       </c>
       <c r="D16" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E16" s="1">
         <v/>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>48</v>
+      <c r="F16" s="1">
+        <v/>
       </c>
       <c r="G16" s="1" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="H16" s="1">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" x14ac:dyDescent="0.25">
@@ -2380,7 +2416,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C17" s="1">
         <v/>
@@ -2391,17 +2427,17 @@
       <c r="E17" s="1">
         <v/>
       </c>
-      <c r="F17" s="1">
-        <v/>
+      <c r="F17" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="H17" s="1">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" x14ac:dyDescent="0.25">
@@ -2409,10 +2445,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>92</v>
+        <v>103</v>
+      </c>
+      <c r="C18" s="1">
+        <v/>
       </c>
       <c r="D18" s="1">
         <v>8</v>
@@ -2424,13 +2460,13 @@
         <v/>
       </c>
       <c r="G18" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H18" s="1">
-        <v>139</v>
+        <v>17</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" x14ac:dyDescent="0.25">
@@ -2438,7 +2474,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C19" s="1">
         <v/>
@@ -2453,13 +2489,13 @@
         <v/>
       </c>
       <c r="G19" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H19" s="1">
         <v>22</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" x14ac:dyDescent="0.25">
@@ -2467,7 +2503,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>20</v>
@@ -2482,13 +2518,13 @@
         <v/>
       </c>
       <c r="G20" s="1" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="H20" s="1">
         <v>49</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" x14ac:dyDescent="0.25">
@@ -2496,10 +2532,10 @@
         <v>9</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
@@ -2511,13 +2547,13 @@
         <v/>
       </c>
       <c r="G21" s="1" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="H21" s="1">
         <v>105</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" x14ac:dyDescent="0.25">
@@ -2525,10 +2561,10 @@
         <v>9</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D22" s="1">
         <v>3</v>
@@ -2540,13 +2576,13 @@
         <v/>
       </c>
       <c r="G22" s="1" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="H22" s="1">
         <v>41</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" x14ac:dyDescent="0.25">
@@ -2554,10 +2590,10 @@
         <v>9</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
@@ -2569,13 +2605,13 @@
         <v>12</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="H23" s="1">
         <v>68</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" x14ac:dyDescent="0.25">
@@ -2583,7 +2619,7 @@
         <v>9</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>27</v>
@@ -2598,13 +2634,13 @@
         <v/>
       </c>
       <c r="G24" s="1" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="H24" s="1">
         <v>115</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" x14ac:dyDescent="0.25">
@@ -2612,7 +2648,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="C25" s="1">
         <v/>
@@ -2624,16 +2660,16 @@
         <v/>
       </c>
       <c r="F25" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H25" s="1">
         <v>15</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" x14ac:dyDescent="0.25">
@@ -2641,7 +2677,7 @@
         <v>9</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="C26" s="1">
         <v/>
@@ -2662,7 +2698,7 @@
         <v>152</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" x14ac:dyDescent="0.25">
@@ -2670,7 +2706,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="C27" s="1">
         <v/>
@@ -2685,13 +2721,13 @@
         <v/>
       </c>
       <c r="G27" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H27" s="1">
         <v>149</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" x14ac:dyDescent="0.25">
@@ -2699,7 +2735,7 @@
         <v>9</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="C28" s="1">
         <v/>
@@ -2714,13 +2750,13 @@
         <v/>
       </c>
       <c r="G28" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H28" s="1">
         <v>128</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" x14ac:dyDescent="0.25">
@@ -2728,7 +2764,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C29" s="1">
         <v/>
@@ -2743,13 +2779,13 @@
         <v/>
       </c>
       <c r="G29" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H29" s="1">
         <v>134</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" x14ac:dyDescent="0.25">
@@ -2757,10 +2793,10 @@
         <v>9</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="D30" s="1">
         <v>8</v>
@@ -2772,13 +2808,13 @@
         <v/>
       </c>
       <c r="G30" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H30" s="1">
         <v>148</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" x14ac:dyDescent="0.25">
@@ -2786,10 +2822,10 @@
         <v>9</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="D31" s="1">
         <v>13</v>
@@ -2801,13 +2837,13 @@
         <v/>
       </c>
       <c r="G31" s="1" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="H31" s="1">
         <v>65</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" x14ac:dyDescent="0.25">
@@ -2815,7 +2851,7 @@
         <v>9</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C32" s="1">
         <v/>
@@ -2830,13 +2866,13 @@
         <v/>
       </c>
       <c r="G32" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H32" s="1">
         <v>23</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" x14ac:dyDescent="0.25">
@@ -2844,7 +2880,7 @@
         <v>9</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>20</v>
@@ -2859,13 +2895,13 @@
         <v/>
       </c>
       <c r="G33" s="1" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="H33" s="1">
         <v>52</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" x14ac:dyDescent="0.25">
@@ -2873,7 +2909,7 @@
         <v>9</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="C34" s="1">
         <v/>
@@ -2888,13 +2924,13 @@
         <v/>
       </c>
       <c r="G34" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H34" s="1">
         <v>153</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" x14ac:dyDescent="0.25">
@@ -2902,10 +2938,10 @@
         <v>9</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="D35" s="1">
         <v>13</v>
@@ -2917,13 +2953,13 @@
         <v/>
       </c>
       <c r="G35" s="1" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="H35" s="1">
         <v>156</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" x14ac:dyDescent="0.25">
@@ -2931,7 +2967,7 @@
         <v>9</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C36" s="1">
         <v/>
@@ -2946,13 +2982,13 @@
         <v/>
       </c>
       <c r="G36" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H36" s="1">
         <v>133</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" x14ac:dyDescent="0.25">
@@ -2960,7 +2996,7 @@
         <v>9</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="C37" s="1">
         <v/>
@@ -2975,13 +3011,13 @@
         <v/>
       </c>
       <c r="G37" s="1" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="H37" s="1">
         <v>157</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" x14ac:dyDescent="0.25">
@@ -2989,7 +3025,7 @@
         <v>9</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="C38" s="1">
         <v/>
@@ -3004,13 +3040,13 @@
         <v/>
       </c>
       <c r="G38" s="1" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="H38" s="1">
         <v>154</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" x14ac:dyDescent="0.25">
@@ -3018,13 +3054,13 @@
         <v>9</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="C39" s="1">
         <v/>
       </c>
       <c r="D39" s="1" t="s">
-        <v>143</v>
+        <v>33</v>
       </c>
       <c r="E39" s="1">
         <v/>
@@ -3033,13 +3069,13 @@
         <v/>
       </c>
       <c r="G39" s="1" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="H39" s="1">
         <v>151</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" x14ac:dyDescent="0.25">
@@ -3047,10 +3083,10 @@
         <v>9</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="D40" s="1">
         <v>5</v>
@@ -3062,13 +3098,13 @@
         <v/>
       </c>
       <c r="G40" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H40" s="1">
         <v>145</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" x14ac:dyDescent="0.25">
@@ -3076,13 +3112,13 @@
         <v>9</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C41" s="1">
         <v/>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>143</v>
+      <c r="D41" s="1">
+        <v>55</v>
       </c>
       <c r="E41" s="1">
         <v/>
@@ -3091,13 +3127,13 @@
         <v/>
       </c>
       <c r="G41" s="1" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="H41" s="1">
         <v>117</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" x14ac:dyDescent="0.25">
@@ -3105,7 +3141,7 @@
         <v>9</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C42" s="1">
         <v/>
@@ -3120,13 +3156,13 @@
         <v/>
       </c>
       <c r="G42" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H42" s="1">
         <v>26</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" x14ac:dyDescent="0.25">
@@ -3134,7 +3170,7 @@
         <v>9</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="C43" s="1">
         <v/>
@@ -3149,13 +3185,13 @@
         <v/>
       </c>
       <c r="G43" s="1" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="H43" s="1">
         <v>121</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" x14ac:dyDescent="0.25">
@@ -3163,7 +3199,7 @@
         <v>9</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C44" s="1">
         <v/>
@@ -3178,13 +3214,13 @@
         <v/>
       </c>
       <c r="G44" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H44" s="1">
         <v>127</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" x14ac:dyDescent="0.25">
@@ -3192,7 +3228,7 @@
         <v>9</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="C45" s="1">
         <v/>
@@ -3207,13 +3243,13 @@
         <v/>
       </c>
       <c r="G45" s="1" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="H45" s="1">
         <v>122</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" x14ac:dyDescent="0.25">
@@ -3221,7 +3257,7 @@
         <v>9</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>20</v>
@@ -3236,13 +3272,13 @@
         <v/>
       </c>
       <c r="G46" s="1" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="H46" s="1">
         <v>81</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47" x14ac:dyDescent="0.25">
@@ -3250,7 +3286,7 @@
         <v>9</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="C47" s="1">
         <v/>
@@ -3265,13 +3301,13 @@
         <v/>
       </c>
       <c r="G47" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H47" s="1">
         <v>19</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" x14ac:dyDescent="0.25">
@@ -3279,7 +3315,7 @@
         <v>9</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="C48" s="1">
         <v/>
@@ -3294,13 +3330,13 @@
         <v/>
       </c>
       <c r="G48" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H48" s="1">
         <v>132</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49" x14ac:dyDescent="0.25">
@@ -3308,7 +3344,7 @@
         <v>9</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>20</v>
@@ -3323,13 +3359,13 @@
         <v/>
       </c>
       <c r="G49" s="1" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="H49" s="1">
         <v>109</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="50" x14ac:dyDescent="0.25">
@@ -3337,7 +3373,7 @@
         <v>9</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="C50" s="1">
         <v/>
@@ -3352,13 +3388,13 @@
         <v/>
       </c>
       <c r="G50" s="1" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="H50" s="1">
         <v>31</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="51" x14ac:dyDescent="0.25">
@@ -3366,13 +3402,13 @@
         <v>9</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>143</v>
+        <v>182</v>
+      </c>
+      <c r="D51" s="1">
+        <v>89</v>
       </c>
       <c r="E51" s="1">
         <v/>
@@ -3381,13 +3417,13 @@
         <v/>
       </c>
       <c r="G51" s="1" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="H51" s="1">
         <v>155</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52" x14ac:dyDescent="0.25">
@@ -3395,7 +3431,7 @@
         <v>9</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="C52" s="1">
         <v/>
@@ -3410,13 +3446,13 @@
         <v/>
       </c>
       <c r="G52" s="1" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="H52" s="1">
         <v>21</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="53" x14ac:dyDescent="0.25">
@@ -3424,7 +3460,7 @@
         <v>9</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>20</v>
@@ -3439,13 +3475,13 @@
         <v/>
       </c>
       <c r="G53" s="1" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="H53" s="1">
         <v>113</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="54" x14ac:dyDescent="0.25">
@@ -3453,7 +3489,7 @@
         <v>9</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>20</v>
@@ -3468,13 +3504,13 @@
         <v/>
       </c>
       <c r="G54" s="1" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="H54" s="1">
         <v>111</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="55" x14ac:dyDescent="0.25">
@@ -3482,7 +3518,7 @@
         <v>9</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="C55" s="1">
         <v/>
@@ -3497,13 +3533,13 @@
         <v/>
       </c>
       <c r="G55" s="1" t="s">
-        <v>181</v>
+        <v>89</v>
       </c>
       <c r="H55" s="1">
         <v>27</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
     </row>
     <row r="56" x14ac:dyDescent="0.25">
@@ -3511,7 +3547,7 @@
         <v>9</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="C56" s="1">
         <v/>
@@ -3532,7 +3568,7 @@
         <v>25</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
     </row>
     <row r="57" x14ac:dyDescent="0.25">
@@ -3540,10 +3576,10 @@
         <v>9</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="D57" s="1">
         <v>3</v>
@@ -3561,21 +3597,21 @@
         <v>108</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
     </row>
     <row r="58" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>9</v>
+        <v>199</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C58" s="1">
-        <v/>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>143</v>
+        <v>200</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D58" s="1">
+        <v/>
       </c>
       <c r="E58" s="1">
         <v/>
@@ -3583,28 +3619,28 @@
       <c r="F58" s="1">
         <v/>
       </c>
-      <c r="G58" s="1" t="s">
-        <v>171</v>
+      <c r="G58" s="1">
+        <v/>
       </c>
       <c r="H58" s="1">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>9</v>
+        <v>199</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C59" s="1">
-        <v/>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>143</v>
+        <v>203</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D59" s="1">
+        <v>8</v>
       </c>
       <c r="E59" s="1">
         <v/>
@@ -3613,27 +3649,27 @@
         <v/>
       </c>
       <c r="G59" s="1" t="s">
-        <v>171</v>
+        <v>66</v>
       </c>
       <c r="H59" s="1">
-        <v>36</v>
+        <v>164</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
     </row>
     <row r="60" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>194</v>
+        <v>206</v>
+      </c>
+      <c r="C60" s="1">
+        <v/>
       </c>
       <c r="D60" s="1">
-        <v/>
+        <v>5</v>
       </c>
       <c r="E60" s="1">
         <v/>
@@ -3641,22 +3677,22 @@
       <c r="F60" s="1">
         <v/>
       </c>
-      <c r="G60" s="1">
-        <v/>
+      <c r="G60" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="H60" s="1">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
     </row>
     <row r="61" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C61" s="1">
         <v/>
@@ -3671,27 +3707,27 @@
         <v/>
       </c>
       <c r="G61" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H61" s="1">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
     </row>
     <row r="62" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>199</v>
+        <v>210</v>
+      </c>
+      <c r="C62" s="1">
+        <v/>
       </c>
       <c r="D62" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E62" s="1">
         <v/>
@@ -3700,27 +3736,27 @@
         <v/>
       </c>
       <c r="G62" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H62" s="1">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
     </row>
     <row r="63" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="C63" s="1">
         <v/>
       </c>
       <c r="D63" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E63" s="1">
         <v/>
@@ -3729,27 +3765,27 @@
         <v/>
       </c>
       <c r="G63" s="1" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="H63" s="1">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
     </row>
     <row r="64" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C64" s="1">
         <v/>
       </c>
       <c r="D64" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E64" s="1">
         <v/>
@@ -3758,27 +3794,27 @@
         <v/>
       </c>
       <c r="G64" s="1" t="s">
-        <v>57</v>
+        <v>215</v>
       </c>
       <c r="H64" s="1">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
     </row>
     <row r="65" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C65" s="1">
-        <v/>
+        <v>217</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="D65" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E65" s="1">
         <v/>
@@ -3787,27 +3823,27 @@
         <v/>
       </c>
       <c r="G65" s="1" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="H65" s="1">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
     </row>
     <row r="66" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="C66" s="1">
         <v/>
       </c>
       <c r="D66" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E66" s="1">
         <v/>
@@ -3816,27 +3852,27 @@
         <v/>
       </c>
       <c r="G66" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H66" s="1">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
     </row>
     <row r="67" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="C67" s="1">
         <v/>
       </c>
       <c r="D67" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E67" s="1">
         <v/>
@@ -3848,21 +3884,21 @@
         <v>17</v>
       </c>
       <c r="H67" s="1">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
     </row>
     <row r="68" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C68" s="1">
-        <v/>
+        <v>224</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="D68" s="1">
         <v>1</v>
@@ -3874,27 +3910,27 @@
         <v/>
       </c>
       <c r="G68" s="1" t="s">
-        <v>212</v>
+        <v>17</v>
       </c>
       <c r="H68" s="1">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
     </row>
     <row r="69" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>192</v>
+        <v>52</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="D69" s="1">
-        <v>5</v>
+        <v/>
       </c>
       <c r="E69" s="1">
         <v/>
@@ -3902,112 +3938,112 @@
       <c r="F69" s="1">
         <v/>
       </c>
-      <c r="G69" s="1" t="s">
-        <v>17</v>
+      <c r="G69" s="1">
+        <v/>
       </c>
       <c r="H69" s="1">
-        <v>129</v>
+        <v>8</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
     </row>
     <row r="70" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>192</v>
+        <v>52</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="C70" s="1">
         <v/>
       </c>
       <c r="D70" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E70" s="1">
         <v/>
       </c>
-      <c r="F70" s="1">
-        <v/>
+      <c r="F70" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="H70" s="1">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
     </row>
     <row r="71" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>192</v>
+        <v>52</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="C71" s="1">
         <v/>
       </c>
       <c r="D71" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E71" s="1">
         <v/>
       </c>
-      <c r="F71" s="1">
-        <v/>
+      <c r="F71" s="1" t="s">
+        <v>234</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="H71" s="1">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
     </row>
     <row r="72" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>192</v>
+        <v>52</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="D72" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E72" s="1">
         <v/>
       </c>
-      <c r="F72" s="1">
-        <v/>
+      <c r="F72" s="1" t="s">
+        <v>234</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="H72" s="1">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
     </row>
     <row r="73" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>46</v>
+        <v>239</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="D73" s="1">
         <v/>
@@ -4022,134 +4058,134 @@
         <v/>
       </c>
       <c r="H73" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
     </row>
     <row r="74" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>46</v>
+        <v>239</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C74" s="1">
-        <v/>
+        <v>243</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>244</v>
       </c>
       <c r="D74" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E74" s="1">
         <v/>
       </c>
       <c r="F74" s="1" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H74" s="1">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
     </row>
     <row r="75" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>231</v>
+        <v>27</v>
       </c>
       <c r="D75" s="1">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E75" s="1">
         <v/>
       </c>
-      <c r="F75" s="1">
-        <v/>
-      </c>
-      <c r="G75" s="1">
-        <v/>
+      <c r="F75" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="H75" s="1">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
     </row>
     <row r="76" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>234</v>
+        <v>248</v>
+      </c>
+      <c r="C76" s="1">
+        <v/>
       </c>
       <c r="D76" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E76" s="1">
         <v/>
       </c>
       <c r="F76" s="1" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>17</v>
+        <v>249</v>
       </c>
       <c r="H76" s="1">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
     </row>
     <row r="77" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>27</v>
+        <v>251</v>
+      </c>
+      <c r="C77" s="1">
+        <v/>
       </c>
       <c r="D77" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E77" s="1">
         <v/>
       </c>
       <c r="F77" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>28</v>
+        <v>252</v>
       </c>
       <c r="H77" s="1">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
     </row>
     <row r="78" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="C78" s="1">
         <v/>
@@ -4161,27 +4197,27 @@
         <v/>
       </c>
       <c r="F78" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H78" s="1">
         <v>135</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
     </row>
     <row r="79" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="D79" s="1">
         <v/>
@@ -4199,18 +4235,18 @@
         <v>9</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
     </row>
     <row r="80" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="D80" s="1">
         <v/>
@@ -4228,15 +4264,15 @@
         <v>6</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
     </row>
     <row r="81" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>27</v>
@@ -4248,7 +4284,7 @@
         <v/>
       </c>
       <c r="F81" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>28</v>
@@ -4257,18 +4293,18 @@
         <v>73</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
     </row>
     <row r="82" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="D82" s="1">
         <v>1</v>
@@ -4277,7 +4313,7 @@
         <v/>
       </c>
       <c r="F82" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>21</v>
@@ -4286,18 +4322,18 @@
         <v>76</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
     </row>
     <row r="83" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="D83" s="1">
         <v>1</v>
@@ -4315,18 +4351,18 @@
         <v>79</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
     </row>
     <row r="84" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="D84" s="1">
         <v/>
@@ -4344,15 +4380,15 @@
         <v>43</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
     </row>
     <row r="85" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>20</v>
@@ -4364,7 +4400,7 @@
         <v/>
       </c>
       <c r="F85" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>21</v>
@@ -4373,18 +4409,18 @@
         <v>75</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
     </row>
     <row r="86" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="D86" s="1">
         <v>5</v>
@@ -4393,7 +4429,7 @@
         <v/>
       </c>
       <c r="F86" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>13</v>
@@ -4402,15 +4438,15 @@
         <v>39</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="87" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="C87" s="1">
         <v/>
@@ -4422,7 +4458,7 @@
         <v/>
       </c>
       <c r="F87" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>21</v>
@@ -4431,15 +4467,15 @@
         <v>29</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
     </row>
     <row r="88" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>20</v>
@@ -4454,21 +4490,21 @@
         <v/>
       </c>
       <c r="G88" s="1" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="H88" s="1">
         <v>110</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
     </row>
     <row r="89" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>20</v>
@@ -4483,24 +4519,24 @@
         <v/>
       </c>
       <c r="G89" s="1" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="H89" s="1">
         <v>112</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
     </row>
     <row r="90" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="D90" s="1">
         <v>1</v>
@@ -4509,7 +4545,7 @@
         <v/>
       </c>
       <c r="F90" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>13</v>
@@ -4518,18 +4554,18 @@
         <v>78</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
     </row>
     <row r="91" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="D91" s="1">
         <v>3</v>
@@ -4538,7 +4574,7 @@
         <v/>
       </c>
       <c r="F91" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>13</v>
@@ -4547,15 +4583,15 @@
         <v>40</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
     </row>
     <row r="92" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>20</v>
@@ -4567,7 +4603,7 @@
         <v/>
       </c>
       <c r="F92" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>21</v>
@@ -4576,18 +4612,18 @@
         <v>70</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
     </row>
     <row r="93" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="D93" s="1">
         <v>1</v>
@@ -4596,7 +4632,7 @@
         <v/>
       </c>
       <c r="F93" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>17</v>
@@ -4605,15 +4641,15 @@
         <v>80</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
     </row>
     <row r="94" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>20</v>
@@ -4625,7 +4661,7 @@
         <v/>
       </c>
       <c r="F94" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>21</v>
@@ -4634,15 +4670,15 @@
         <v>89</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
     </row>
     <row r="95" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>27</v>
@@ -4654,7 +4690,7 @@
         <v/>
       </c>
       <c r="F95" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>28</v>
@@ -4663,18 +4699,18 @@
         <v>72</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="96" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="D96" s="1">
         <v>1</v>
@@ -4683,7 +4719,7 @@
         <v/>
       </c>
       <c r="F96" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>21</v>
@@ -4692,15 +4728,15 @@
         <v>69</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
     </row>
     <row r="97" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>20</v>
@@ -4712,7 +4748,7 @@
         <v/>
       </c>
       <c r="F97" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>21</v>
@@ -4721,18 +4757,18 @@
         <v>67</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
     </row>
     <row r="98" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="D98" s="1">
         <v>1</v>
@@ -4741,7 +4777,7 @@
         <v/>
       </c>
       <c r="F98" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>13</v>
@@ -4750,15 +4786,15 @@
         <v>90</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
     </row>
     <row r="99" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>27</v>
@@ -4770,7 +4806,7 @@
         <v/>
       </c>
       <c r="F99" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>28</v>
@@ -4779,15 +4815,15 @@
         <v>100</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
     </row>
     <row r="100" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="C100" s="1">
         <v/>
@@ -4799,7 +4835,7 @@
         <v/>
       </c>
       <c r="F100" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>21</v>
@@ -4808,15 +4844,15 @@
         <v>102</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
     </row>
     <row r="101" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>24</v>
@@ -4828,7 +4864,7 @@
         <v/>
       </c>
       <c r="F101" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>13</v>
@@ -4837,15 +4873,15 @@
         <v>86</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
     </row>
     <row r="102" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>20</v>
@@ -4857,7 +4893,7 @@
         <v/>
       </c>
       <c r="F102" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>21</v>
@@ -4866,15 +4902,15 @@
         <v>92</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="103" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>24</v>
@@ -4886,7 +4922,7 @@
         <v/>
       </c>
       <c r="F103" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>13</v>
@@ -4895,18 +4931,18 @@
         <v>91</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
     </row>
     <row r="104" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="D104" s="1">
         <v>1</v>
@@ -4915,7 +4951,7 @@
         <v/>
       </c>
       <c r="F104" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>28</v>
@@ -4924,18 +4960,18 @@
         <v>84</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
     </row>
     <row r="105" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="D105" s="1">
         <v>1</v>
@@ -4947,21 +4983,21 @@
         <v>12</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="H105" s="1">
         <v>107</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
     </row>
     <row r="106" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="C106" s="1">
         <v/>
@@ -4973,7 +5009,7 @@
         <v/>
       </c>
       <c r="F106" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>21</v>
@@ -4982,15 +5018,15 @@
         <v>101</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
     </row>
     <row r="107" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>20</v>
@@ -5002,7 +5038,7 @@
         <v/>
       </c>
       <c r="F107" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>21</v>
@@ -5011,15 +5047,15 @@
         <v>51</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
     </row>
     <row r="108" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>27</v>
@@ -5040,15 +5076,15 @@
         <v>71</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
     </row>
     <row r="109" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>24</v>
@@ -5060,7 +5096,7 @@
         <v/>
       </c>
       <c r="F109" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>13</v>
@@ -5069,15 +5105,15 @@
         <v>74</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
     </row>
     <row r="110" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="C110" s="1">
         <v/>
@@ -5089,7 +5125,7 @@
         <v/>
       </c>
       <c r="F110" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>13</v>
@@ -5098,18 +5134,18 @@
         <v>45</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
     </row>
     <row r="111" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="D111" s="1">
         <v>1</v>
@@ -5118,24 +5154,24 @@
         <v/>
       </c>
       <c r="F111" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="H111" s="1">
         <v>83</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
     </row>
     <row r="112" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>20</v>
@@ -5147,7 +5183,7 @@
         <v/>
       </c>
       <c r="F112" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>21</v>
@@ -5156,18 +5192,18 @@
         <v>99</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
     </row>
     <row r="113" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="D113" s="1">
         <v/>
@@ -5176,7 +5212,7 @@
         <v/>
       </c>
       <c r="F113" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>21</v>
@@ -5185,15 +5221,15 @@
         <v>103</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
     </row>
     <row r="114" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>27</v>
@@ -5205,7 +5241,7 @@
         <v/>
       </c>
       <c r="F114" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>28</v>
@@ -5214,15 +5250,15 @@
         <v>104</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
     </row>
     <row r="115" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="C115" s="1">
         <v/>
@@ -5234,7 +5270,7 @@
         <v/>
       </c>
       <c r="F115" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G115" s="1">
         <v/>
@@ -5243,15 +5279,15 @@
         <v>124</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
     </row>
     <row r="116" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="C116" s="1">
         <v/>
@@ -5263,7 +5299,7 @@
         <v/>
       </c>
       <c r="F116" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>21</v>
@@ -5272,15 +5308,15 @@
         <v>118</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
     </row>
     <row r="117" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="C117" s="1">
         <v/>
@@ -5292,7 +5328,7 @@
         <v/>
       </c>
       <c r="F117" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>21</v>
@@ -5301,15 +5337,15 @@
         <v>119</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
     </row>
     <row r="118" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="C118" s="1">
         <v/>
@@ -5321,7 +5357,7 @@
         <v/>
       </c>
       <c r="F118" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>21</v>
@@ -5330,15 +5366,15 @@
         <v>116</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
     </row>
     <row r="119" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="C119" s="1">
         <v/>
@@ -5350,7 +5386,7 @@
         <v/>
       </c>
       <c r="F119" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>21</v>
@@ -5359,15 +5395,15 @@
         <v>125</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
     </row>
     <row r="120" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>20</v>
@@ -5379,7 +5415,7 @@
         <v/>
       </c>
       <c r="F120" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>21</v>
@@ -5388,18 +5424,18 @@
         <v>87</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
     </row>
     <row r="121" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="D121" s="1">
         <v>1</v>
@@ -5408,27 +5444,27 @@
         <v/>
       </c>
       <c r="F121" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>347</v>
+        <v>63</v>
       </c>
       <c r="H121" s="1">
         <v>97</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
     </row>
     <row r="122" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="D122" s="1">
         <v>1</v>
@@ -5437,7 +5473,7 @@
         <v/>
       </c>
       <c r="F122" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>21</v>
@@ -5446,15 +5482,15 @@
         <v>106</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
     </row>
     <row r="123" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>27</v>
@@ -5466,7 +5502,7 @@
         <v/>
       </c>
       <c r="F123" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>28</v>
@@ -5475,18 +5511,18 @@
         <v>56</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
     </row>
     <row r="124" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="D124" s="1">
         <v>1</v>
@@ -5495,7 +5531,7 @@
         <v/>
       </c>
       <c r="F124" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G124" s="1">
         <v/>
@@ -5504,18 +5540,18 @@
         <v>96</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
     </row>
     <row r="125" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="D125" s="1">
         <v>1</v>
@@ -5524,7 +5560,7 @@
         <v/>
       </c>
       <c r="F125" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>28</v>
@@ -5533,18 +5569,18 @@
         <v>93</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
     </row>
     <row r="126" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="D126" s="1">
         <v>1</v>
@@ -5553,7 +5589,7 @@
         <v/>
       </c>
       <c r="F126" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>28</v>
@@ -5562,18 +5598,18 @@
         <v>94</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
     </row>
     <row r="127" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="D127" s="1">
         <v>1</v>
@@ -5582,27 +5618,27 @@
         <v/>
       </c>
       <c r="F127" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="H127" s="1">
         <v>82</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
     </row>
     <row r="128" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="D128" s="1">
         <v>1</v>
@@ -5611,7 +5647,7 @@
         <v/>
       </c>
       <c r="F128" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>13</v>
@@ -5620,18 +5656,18 @@
         <v>85</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
     </row>
     <row r="129" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="D129" s="1">
         <v>1</v>
@@ -5640,7 +5676,7 @@
         <v/>
       </c>
       <c r="F129" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G129" s="1">
         <v/>
@@ -5649,15 +5685,15 @@
         <v>95</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
     </row>
     <row r="130" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="C130" s="1">
         <v/>
@@ -5672,24 +5708,24 @@
         <v/>
       </c>
       <c r="G130" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H130" s="1">
         <v>12</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
     </row>
     <row r="131" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="D131" s="1">
         <v>1</v>
@@ -5698,7 +5734,7 @@
         <v/>
       </c>
       <c r="F131" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>13</v>
@@ -5707,15 +5743,15 @@
         <v>66</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
     </row>
     <row r="132" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="C132" s="1">
         <v/>
@@ -5736,18 +5772,18 @@
         <v>62</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
     </row>
     <row r="133" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="D133" s="1">
         <v>1</v>
@@ -5765,15 +5801,15 @@
         <v>64</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
     </row>
     <row r="134" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>27</v>
@@ -5785,7 +5821,7 @@
         <v/>
       </c>
       <c r="F134" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>28</v>
@@ -5794,15 +5830,15 @@
         <v>77</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
     </row>
     <row r="135" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="C135" s="1">
         <v/>
@@ -5823,15 +5859,15 @@
         <v>61</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
     </row>
     <row r="136" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>20</v>
@@ -5852,18 +5888,18 @@
         <v>98</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
     </row>
     <row r="137" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="D137" s="1">
         <v>1</v>
@@ -5872,7 +5908,7 @@
         <v/>
       </c>
       <c r="F137" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>13</v>
@@ -5881,18 +5917,18 @@
         <v>55</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
     </row>
     <row r="138" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="D138" s="1">
         <v>1</v>
@@ -5901,7 +5937,7 @@
         <v/>
       </c>
       <c r="F138" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>13</v>
@@ -5910,15 +5946,15 @@
         <v>54</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="139" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>27</v>
@@ -5930,7 +5966,7 @@
         <v/>
       </c>
       <c r="F139" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>28</v>
@@ -5939,18 +5975,18 @@
         <v>34</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
     </row>
     <row r="140" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="D140" s="1">
         <v>5</v>
@@ -5962,21 +5998,21 @@
         <v/>
       </c>
       <c r="G140" s="1" t="s">
-        <v>400</v>
+        <v>115</v>
       </c>
       <c r="H140" s="1">
         <v>38</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
     </row>
     <row r="141" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>27</v>
@@ -5988,7 +6024,7 @@
         <v/>
       </c>
       <c r="F141" s="1" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>28</v>
@@ -5997,15 +6033,15 @@
         <v>32</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
     </row>
     <row r="142" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>27</v>
@@ -6017,7 +6053,7 @@
         <v/>
       </c>
       <c r="F142" s="1" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>28</v>
@@ -6026,15 +6062,15 @@
         <v>33</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="143" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="C143" s="1">
         <v/>
@@ -6055,15 +6091,15 @@
         <v>28</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="144" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="C144" s="1">
         <v/>
@@ -6078,21 +6114,21 @@
         <v/>
       </c>
       <c r="G144" s="1" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="H144" s="1">
         <v>13</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="145" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="C145" s="1">
         <v/>
@@ -6104,7 +6140,7 @@
         <v/>
       </c>
       <c r="F145" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>21</v>
@@ -6113,15 +6149,15 @@
         <v>11</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
     </row>
     <row r="146" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="C146" s="1">
         <v/>
@@ -6133,7 +6169,7 @@
         <v/>
       </c>
       <c r="F146" s="1" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>28</v>
@@ -6142,18 +6178,18 @@
         <v>44</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
     </row>
     <row r="147" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="D147" s="1">
         <v>1</v>
@@ -6162,7 +6198,7 @@
         <v/>
       </c>
       <c r="F147" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>13</v>
@@ -6171,15 +6207,15 @@
         <v>57</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="148" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>24</v>
@@ -6191,7 +6227,7 @@
         <v/>
       </c>
       <c r="F148" s="1" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>13</v>
@@ -6200,15 +6236,15 @@
         <v>47</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="149" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="C149" s="1">
         <v/>
@@ -6220,24 +6256,24 @@
         <v/>
       </c>
       <c r="F149" s="1" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H149" s="1">
         <v>18</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
     </row>
     <row r="150" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="C150" s="1">
         <v/>
@@ -6249,7 +6285,7 @@
         <v/>
       </c>
       <c r="F150" s="1" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>21</v>
@@ -6258,15 +6294,15 @@
         <v>24</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="151" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="C151" s="1">
         <v/>
@@ -6278,7 +6314,7 @@
         <v/>
       </c>
       <c r="F151" s="1" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>21</v>
@@ -6287,18 +6323,18 @@
         <v>16</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="152" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="D152" s="1">
         <v>20</v>
@@ -6307,7 +6343,7 @@
         <v/>
       </c>
       <c r="F152" s="1" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="G152" s="1" t="s">
         <v>21</v>
@@ -6316,15 +6352,15 @@
         <v>20</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
     </row>
     <row r="153" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="C153" s="1">
         <v/>
@@ -6336,16 +6372,16 @@
         <v/>
       </c>
       <c r="F153" s="1" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H153" s="1">
         <v>14</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -6355,7 +6391,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6571,26 +6607,26 @@
       <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="1">
+        <v/>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
       <c r="E8" s="1">
         <v/>
       </c>
       <c r="F8" s="1">
         <v/>
       </c>
-      <c r="G8" s="1">
-        <v/>
+      <c r="G8" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="H8" s="1">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" x14ac:dyDescent="0.25">
@@ -6598,10 +6634,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -6616,10 +6652,10 @@
         <v/>
       </c>
       <c r="H9" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" x14ac:dyDescent="0.25">
@@ -6627,10 +6663,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -6645,10 +6681,10 @@
         <v/>
       </c>
       <c r="H10" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" x14ac:dyDescent="0.25">
@@ -6656,10 +6692,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -6670,14 +6706,14 @@
       <c r="F11" s="1">
         <v/>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>21</v>
+      <c r="G11" s="1">
+        <v/>
       </c>
       <c r="H11" s="1">
-        <v>162</v>
+        <v>60</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" x14ac:dyDescent="0.25">
@@ -6685,13 +6721,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="C12" s="1">
+        <v/>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="E12" s="1">
         <v/>
@@ -6700,13 +6736,13 @@
         <v/>
       </c>
       <c r="G12" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="H12" s="1">
-        <v>163</v>
+        <v>36</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" x14ac:dyDescent="0.25">
@@ -6714,10 +6750,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="1">
-        <v/>
+        <v>47</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -6728,25 +6764,25 @@
       <c r="F13" s="1">
         <v/>
       </c>
-      <c r="G13" s="1">
-        <v/>
+      <c r="G13" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="H13" s="1">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="1">
-        <v/>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -6754,17 +6790,75 @@
       <c r="E14" s="1">
         <v/>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>48</v>
+      <c r="F14" s="1">
+        <v/>
       </c>
       <c r="G14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H14" s="1">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="1">
+        <v/>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v/>
+      </c>
+      <c r="F15" s="1">
+        <v/>
+      </c>
+      <c r="G15" s="1">
+        <v/>
+      </c>
+      <c r="H15" s="1">
+        <v>160</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="1">
+        <v/>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v/>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="1">
+        <v>120</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Observaciones.xlsx
+++ b/Observaciones.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="458">
   <si>
     <t>List</t>
   </si>
@@ -256,9 +256,67 @@
     <t>https://trello.com/c/Zh9ndQvB</t>
   </si>
   <si>
+    <t>Como usuario auditor, quisiera poder generar oficio de incorporacion</t>
+  </si>
+  <si>
+    <t>[[agregar oficio de incorporación]]</t>
+  </si>
+  <si>
+    <t>Story,Estado</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/J1d9RJXp</t>
+  </si>
+  <si>
+    <t>Como usuario auditor, quisiera poder generar oficio de Comision Incorporacion</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/kjwTK1Jn</t>
+  </si>
+  <si>
+    <t>Dar un curso de plantillas de observaciones a directores de Estado (Fecha por definir)</t>
+  </si>
+  <si>
+    <t>[[capacitación]] </t>
+  </si>
+  <si>
+    <t>https://trello.com/c/KCFxzcEI</t>
+  </si>
+  <si>
+    <t>Puestos en el acta de inicio de estado no aparece</t>
+  </si>
+  <si>
+    <t>Estado,Bug</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/3jECqK7q</t>
+  </si>
+  <si>
+    <t>Generar listado de usuarios de auditoria al gobierno del estado, que incluya los roles que tiene asignado cada uno.</t>
+  </si>
+  <si>
+    <t>[[elaboración de reportes]]</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/BpM2i7eG</t>
+  </si>
+  <si>
+    <t>Agregar nuevas Clasificaciones de observaciones en Evaluación estado. (en espera del listado)</t>
+  </si>
+  <si>
+    <t>Explicarle a Ceci Rojas donde se agregan
+[[capacitación]]</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/RNj9cfQM</t>
+  </si>
+  <si>
     <t>Correccion en oficio de designacion de enlace unico</t>
   </si>
   <si>
+    <t>[[corrección de oficios]]</t>
+  </si>
+  <si>
     <t>Task,Municipios</t>
   </si>
   <si>
@@ -268,7 +326,7 @@
     <t>Como usuario auditor, quisiera poder generar oficio de Sustitucion</t>
   </si>
   <si>
-    <t>Story,Estado</t>
+    <t>[[agregar oficio de sustitución]]</t>
   </si>
   <si>
     <t>https://trello.com/c/X0MrGwl4</t>
@@ -286,7 +344,8 @@
     <t>AVISARLE A JUSTINO QUE NO PODREMOS LIMPIAR EL EXCEL
 Hola buenas tardes! Para solicitarte de nuevo su apoyo para concentrar la información de las partidas de egresos de los Entes Paraestatales al III Trimestre 2020 que ya hemos venido manejando; la información ya se encuentra cargada en el SIGAS en cada uno de los Entes en excel o comprimido como ya te has dado cuenta.
 Aprovecho para comentarte que hay un ente que al parecer no esta dado de alta, al menos para subir la información financiera, que es el siguiente: Fideicomiso Maestro para el Financiamiento del Sector Agropecuario en Sonora.
-Justino g.</t>
+Justino g.
+[[concentración de información]]</t>
   </si>
   <si>
     <t>Task,Calidad</t>
@@ -298,6 +357,11 @@
     <t>Task: Validar en observaciones vencidas los correos de noreplay gmail que ahora sean de isaf.gob.mx</t>
   </si>
   <si>
+    <t>Usualmente, las tareas son acciones pequeñas que hacemos para lograr un objetivo, muchas veces dependen de las *User Stories* o de los *Bugs*. 
+Es una buena practica llevar registro de ellas para asignarlas a otros usuarios y para que quede constancia de nuestro esfuerzo.
+[[mantenimiento]]</t>
+  </si>
+  <si>
     <t>Task,Sistema</t>
   </si>
   <si>
@@ -307,20 +371,15 @@
     <t>Agregar Nombres Cortos a entes</t>
   </si>
   <si>
+    <t>[[mantenimiento]]</t>
+  </si>
+  <si>
     <t>https://trello.com/c/FuCcAUru</t>
   </si>
   <si>
     <t>Al cancelar auditoria se muestra un mensaje de error</t>
   </si>
   <si>
-    <t>**STEPS TO REPRODUCE:**
-1.- Entrar a una auditoria como admin
-2.- Cancelar auditoria
-3.- Abrir la consola del navegador
-**BUG:** Se observa un mensaje con la leyenda: status.ts:78 TypeError: Cannot read property 'nombre' of null
-**EXPECTED:** No debe aparecer ese mensaje</t>
-  </si>
-  <si>
     <t>Bug,Sistema</t>
   </si>
   <si>
@@ -330,6 +389,9 @@
     <t>Como usuario de seguimiento quisiera ver las observaciones pendientes de atender en la pagina de bienvenida.</t>
   </si>
   <si>
+    <t>[[panel de inicio con observaciones pendientes]]</t>
+  </si>
+  <si>
     <t>Story,Sistema</t>
   </si>
   <si>
@@ -339,28 +401,22 @@
     <t>Agregar campo Nombres Cortos para Fondos Federales</t>
   </si>
   <si>
+    <t>[[mejora a fondos federales]]</t>
+  </si>
+  <si>
     <t>https://trello.com/c/zXlHyHTk</t>
   </si>
   <si>
     <t>Como usuario auditor quiero tener un reporte de formato transparencia</t>
   </si>
   <si>
+    <t>[[reporte de transparencia]]</t>
+  </si>
+  <si>
     <t>Story,Calidad</t>
   </si>
   <si>
     <t>https://trello.com/c/QspTS9Qc</t>
-  </si>
-  <si>
-    <t>En el oficio de notificación especificar el periodo a auditar</t>
-  </si>
-  <si>
-    <t>Agregar el periodo al momento de generar la auditoria y revisar que la auditoria se genere con el mismo id</t>
-  </si>
-  <si>
-    <t>Estado,Story</t>
-  </si>
-  <si>
-    <t>https://trello.com/c/rIeT0pOM</t>
   </si>
   <si>
     <t>Como usuario de seguimiento, quiero que el reporte de observación individual no contenga caracteres extraños.</t>
@@ -691,7 +747,16 @@
     <t>formatos usados para el informe semestral a partir de la información del reporte de status procesal.</t>
   </si>
   <si>
+    <t>Task,Mayor</t>
+  </si>
+  <si>
     <t>https://trello.com/c/HKtOBY0f</t>
+  </si>
+  <si>
+    <t>Como auditor, quiero que al editar el periodo de revision tambien cambie el de la auditoria</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/dHjY45dp</t>
   </si>
   <si>
     <t>Sprint Backlog</t>
@@ -726,79 +791,6 @@
     <t>https://trello.com/c/pkkrZwjA</t>
   </si>
   <si>
-    <t>Como un auditor, quiero que la redaccion del oficio de notificacion cambie cuando la auditoria es en tiempo real</t>
-  </si>
-  <si>
-    <t>Habra que determinar como se van a manejar las auditorias en tiempo real, crear nuevos tipos de auditoria solo complicaria las cosas.</t>
-  </si>
-  <si>
-    <t>https://trello.com/c/mpwynwJ7</t>
-  </si>
-  <si>
-    <t>Como usuario auditor, quiero que el informe de solventacion enumere las obs en una sola linea.</t>
-  </si>
-  <si>
-    <t>https://trello.com/c/P4m7hl8R</t>
-  </si>
-  <si>
-    <t>Como usuario auditor, quisiera poder generar oficio de incorporacion</t>
-  </si>
-  <si>
-    <t>https://trello.com/c/J1d9RJXp</t>
-  </si>
-  <si>
-    <t>Como usuario auditor, quisiera poder generar oficio de Comision Incorporacion</t>
-  </si>
-  <si>
-    <t>https://trello.com/c/kjwTK1Jn</t>
-  </si>
-  <si>
-    <t>Dar un curso de plantillas de observaciones a directores de Estado (Fecha por definir)</t>
-  </si>
-  <si>
-    <t>https://trello.com/c/KCFxzcEI</t>
-  </si>
-  <si>
-    <t>Puestos en el acta de inicio de estado no aparece</t>
-  </si>
-  <si>
-    <t>Estado,Bug</t>
-  </si>
-  <si>
-    <t>https://trello.com/c/3jECqK7q</t>
-  </si>
-  <si>
-    <t>Generar listado de usuarios de auditoria al gobierno del estado, que incluya los roles que tiene asignado cada uno.</t>
-  </si>
-  <si>
-    <t>Enviarselo al heriberto plis.
-</t>
-  </si>
-  <si>
-    <t>https://trello.com/c/BpM2i7eG</t>
-  </si>
-  <si>
-    <t>Corregir oficio de notificación</t>
-  </si>
-  <si>
-    <t>https://trello.com/c/6cJ8m8Uw</t>
-  </si>
-  <si>
-    <t>Correcciones en el Acta de inicio</t>
-  </si>
-  <si>
-    <t>https://trello.com/c/WInJR7mB</t>
-  </si>
-  <si>
-    <t>Agregar nuevas Clasificaciones de observaciones en Evaluación estado. (en espera del listado)</t>
-  </si>
-  <si>
-    <t>Explicarle a Ceci Rojas donde se agregan</t>
-  </si>
-  <si>
-    <t>https://trello.com/c/RNj9cfQM</t>
-  </si>
-  <si>
     <t>Step 3: Daily Meeting</t>
   </si>
   <si>
@@ -822,29 +814,13 @@
     <t>Como usuario del sistema, quisiera que al dar de alta un nuevo funcionario me diera un aviso si ya hay uno con el mismo nombre.</t>
   </si>
   <si>
+    <t>[[evitar duplicación de funcionarios]]</t>
+  </si>
+  <si>
     <t>MG</t>
   </si>
   <si>
     <t>https://trello.com/c/NnawuvfU</t>
-  </si>
-  <si>
-    <t>Como usuario auditor, quiero poder marcar las auditorias como de tiempo real.</t>
-  </si>
-  <si>
-    <t>DR</t>
-  </si>
-  <si>
-    <t>https://trello.com/c/zuY0n21d</t>
-  </si>
-  <si>
-    <t>Como auditor quisiera que el oficio de notificacion muestre el periodo de inicio de auditoria</t>
-  </si>
-  <si>
-    <t>Debera mostrarse este dato en alguna parte visible de la auditoria/planeacion
-</t>
-  </si>
-  <si>
-    <t>https://trello.com/c/njfXoVcX</t>
   </si>
   <si>
     <t>Code Review</t>
@@ -876,40 +852,52 @@
 6.       Instituciones de Educación Superior
 7.       Sindicato
 8.       Asociaciones Civiles
- Nota: Las Dependencias y Entidades forman parte del Poder Ejecutivo. En el caso de los Órganos Desconcentrados los que están en el Sistema SIGAS son parte de las Dependencias de la Administración Pública Estatal.</t>
+ Nota: Las Dependencias y Entidades forman parte del Poder Ejecutivo. En el caso de los Órganos Desconcentrados los que están en el Sistema SIGAS son parte de las Dependencias de la Administración Pública Estatal.
+[[mantenimiento]]</t>
   </si>
   <si>
     <t>https://trello.com/c/JEQSnJ7G</t>
   </si>
   <si>
-    <t>Subir la revista</t>
-  </si>
-  <si>
-    <t>https://trello.com/c/ScVYCG8T</t>
-  </si>
-  <si>
-    <t>Micrositio de reuniones de reincidencias</t>
-  </si>
-  <si>
-    <t>Task,Mayor</t>
-  </si>
-  <si>
-    <t>https://trello.com/c/VK6odcKL</t>
-  </si>
-  <si>
-    <t>Micrositio Auditoria en tiempo Real</t>
-  </si>
-  <si>
-    <t>Story,Mayor</t>
-  </si>
-  <si>
-    <t>https://trello.com/c/KQREsORe</t>
-  </si>
-  <si>
     <t>Cuando se agrega un funcionario, marcar por default la casilla de que trabaja actualmente en la dependencia.</t>
   </si>
   <si>
     <t>https://trello.com/c/HqKq7BYy</t>
+  </si>
+  <si>
+    <t>Como auditor quisiera que el oficio de notificacion muestre el periodo de inicio de auditoria</t>
+  </si>
+  <si>
+    <t>Debera mostrarse este dato en alguna parte visible de la auditoria/planeacion
+[[corrección de oficios]]</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/njfXoVcX</t>
+  </si>
+  <si>
+    <t>Correcciones en el Acta de inicio</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/WInJR7mB</t>
+  </si>
+  <si>
+    <t>Como un auditor, quiero que la redaccion del oficio de notificacion cambie cuando la auditoria es en tiempo real</t>
+  </si>
+  <si>
+    <t>Habra que determinar como se van a manejar las auditorias en tiempo real, crear nuevos tipos de auditoria solo complicaria las cosas.
+[[corrección de oficios]]</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/mpwynwJ7</t>
+  </si>
+  <si>
+    <t>Corregir oficio de notificación</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/6cJ8m8Uw</t>
   </si>
   <si>
     <t>Complete</t>
@@ -949,6 +937,60 @@
   </si>
   <si>
     <t>https://trello.com/c/CAXLhlTu</t>
+  </si>
+  <si>
+    <t>En el oficio de notificación especificar el periodo a auditar</t>
+  </si>
+  <si>
+    <t>Agregar el periodo al momento de generar la auditoria y revisar que la auditoria se genere con el mismo id</t>
+  </si>
+  <si>
+    <t>Estado,Story</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/rIeT0pOM</t>
+  </si>
+  <si>
+    <t>Como usuario auditor, quiero que el informe de solventacion enumere las obs en una sola linea.</t>
+  </si>
+  <si>
+    <t>A,JB</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/P4m7hl8R</t>
+  </si>
+  <si>
+    <t>Como usuario auditor, quiero poder marcar las auditorias como de tiempo real.</t>
+  </si>
+  <si>
+    <t>[[tipificar auditorias en tiempo real]]</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/zuY0n21d</t>
+  </si>
+  <si>
+    <t>Subir la revista</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/ScVYCG8T</t>
+  </si>
+  <si>
+    <t>Micrositio de reuniones de reincidencias</t>
+  </si>
+  <si>
+    <t>[[creación de micrositios]]</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/VK6odcKL</t>
+  </si>
+  <si>
+    <t>Micrositio Auditoria en tiempo Real</t>
+  </si>
+  <si>
+    <t>Mayor,Task</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/KQREsORe</t>
   </si>
   <si>
     <t>Complete 30-11-2020</t>
@@ -1941,7 +1983,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I153"/>
+  <dimension ref="A1:I154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2041,11 +2083,11 @@
       <c r="B4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="1">
-        <v/>
+      <c r="C4" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1">
         <v/>
@@ -2054,13 +2096,13 @@
         <v/>
       </c>
       <c r="G4" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H4" s="1">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" x14ac:dyDescent="0.25">
@@ -2068,7 +2110,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" s="1">
         <v/>
@@ -2083,10 +2125,10 @@
         <v/>
       </c>
       <c r="G5" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H5" s="1">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>67</v>
@@ -2099,11 +2141,11 @@
       <c r="B6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="1">
-        <v/>
+      <c r="C6" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="D6" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
         <v/>
@@ -2112,13 +2154,13 @@
         <v/>
       </c>
       <c r="G6" s="1" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="H6" s="1">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" x14ac:dyDescent="0.25">
@@ -2126,13 +2168,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="C7" s="1">
+        <v/>
+      </c>
       <c r="D7" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
         <v/>
@@ -2144,7 +2186,7 @@
         <v>72</v>
       </c>
       <c r="H7" s="1">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>73</v>
@@ -2158,10 +2200,10 @@
         <v>74</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E8" s="1">
         <v/>
@@ -2170,10 +2212,10 @@
         <v/>
       </c>
       <c r="G8" s="1" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="H8" s="1">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>76</v>
@@ -2187,10 +2229,10 @@
         <v>77</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="D9" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
         <v/>
@@ -2199,13 +2241,13 @@
         <v/>
       </c>
       <c r="G9" s="1" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="H9" s="1">
-        <v>35</v>
+        <v>130</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" x14ac:dyDescent="0.25">
@@ -2213,13 +2255,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
         <v/>
@@ -2228,13 +2270,13 @@
         <v/>
       </c>
       <c r="G10" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H10" s="1">
-        <v>42</v>
+        <v>167</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" x14ac:dyDescent="0.25">
@@ -2242,13 +2284,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="1">
-        <v/>
+        <v>84</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="D11" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E11" s="1">
         <v/>
@@ -2257,13 +2299,13 @@
         <v/>
       </c>
       <c r="G11" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="H11" s="1">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" x14ac:dyDescent="0.25">
@@ -2271,13 +2313,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="D12" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E12" s="1">
         <v/>
@@ -2286,13 +2328,13 @@
         <v/>
       </c>
       <c r="G12" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H12" s="1">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" x14ac:dyDescent="0.25">
@@ -2300,10 +2342,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="D13" s="1">
         <v>5</v>
@@ -2315,13 +2357,13 @@
         <v/>
       </c>
       <c r="G13" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H13" s="1">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" x14ac:dyDescent="0.25">
@@ -2329,13 +2371,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D14" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1">
         <v/>
@@ -2344,13 +2386,13 @@
         <v/>
       </c>
       <c r="G14" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H14" s="1">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" x14ac:dyDescent="0.25">
@@ -2358,28 +2400,28 @@
         <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="1">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1">
+        <v/>
+      </c>
+      <c r="F15" s="1">
+        <v/>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="1">
-        <v>5</v>
-      </c>
-      <c r="E15" s="1">
-        <v/>
-      </c>
-      <c r="F15" s="1">
-        <v/>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="H15" s="1">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" x14ac:dyDescent="0.25">
@@ -2387,13 +2429,13 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="1">
-        <v/>
-      </c>
       <c r="D16" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E16" s="1">
         <v/>
@@ -2402,13 +2444,13 @@
         <v/>
       </c>
       <c r="G16" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H16" s="1">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" x14ac:dyDescent="0.25">
@@ -2416,28 +2458,28 @@
         <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" s="1">
-        <v/>
+        <v>103</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="D17" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E17" s="1">
         <v/>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>54</v>
+      <c r="F17" s="1">
+        <v/>
       </c>
       <c r="G17" s="1" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="H17" s="1">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" x14ac:dyDescent="0.25">
@@ -2445,13 +2487,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="1">
-        <v/>
+        <v>107</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="D18" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E18" s="1">
         <v/>
@@ -2460,13 +2502,13 @@
         <v/>
       </c>
       <c r="G18" s="1" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="H18" s="1">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" x14ac:dyDescent="0.25">
@@ -2474,13 +2516,13 @@
         <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" s="1">
-        <v/>
+        <v>110</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="D19" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E19" s="1">
         <v/>
@@ -2489,13 +2531,13 @@
         <v/>
       </c>
       <c r="G19" s="1" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="H19" s="1">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" x14ac:dyDescent="0.25">
@@ -2503,13 +2545,13 @@
         <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="D20" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E20" s="1">
         <v/>
@@ -2518,13 +2560,13 @@
         <v/>
       </c>
       <c r="G20" s="1" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="H20" s="1">
-        <v>49</v>
+        <v>126</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" x14ac:dyDescent="0.25">
@@ -2532,13 +2574,13 @@
         <v>9</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
+      </c>
+      <c r="C21" s="1">
+        <v/>
       </c>
       <c r="D21" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E21" s="1">
         <v/>
@@ -2547,13 +2589,13 @@
         <v/>
       </c>
       <c r="G21" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="H21" s="1">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" x14ac:dyDescent="0.25">
@@ -2561,28 +2603,28 @@
         <v>9</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
+      </c>
+      <c r="C22" s="1">
+        <v/>
       </c>
       <c r="D22" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E22" s="1">
         <v/>
       </c>
-      <c r="F22" s="1">
-        <v/>
+      <c r="F22" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H22" s="1">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" x14ac:dyDescent="0.25">
@@ -2590,28 +2632,28 @@
         <v>9</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
+      </c>
+      <c r="C23" s="1">
+        <v/>
       </c>
       <c r="D23" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E23" s="1">
         <v/>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>12</v>
+      <c r="F23" s="1">
+        <v/>
       </c>
       <c r="G23" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H23" s="1">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" x14ac:dyDescent="0.25">
@@ -2619,13 +2661,13 @@
         <v>9</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>27</v>
+        <v>124</v>
+      </c>
+      <c r="C24" s="1">
+        <v/>
       </c>
       <c r="D24" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E24" s="1">
         <v/>
@@ -2634,13 +2676,13 @@
         <v/>
       </c>
       <c r="G24" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H24" s="1">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" x14ac:dyDescent="0.25">
@@ -2648,28 +2690,28 @@
         <v>9</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" s="1">
-        <v/>
+        <v>126</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D25" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E25" s="1">
         <v/>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>123</v>
+      <c r="F25" s="1">
+        <v/>
       </c>
       <c r="G25" s="1" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="H25" s="1">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" x14ac:dyDescent="0.25">
@@ -2677,13 +2719,13 @@
         <v>9</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C26" s="1">
-        <v/>
+        <v>128</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="D26" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E26" s="1">
         <v/>
@@ -2692,13 +2734,13 @@
         <v/>
       </c>
       <c r="G26" s="1" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="H26" s="1">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" x14ac:dyDescent="0.25">
@@ -2706,13 +2748,13 @@
         <v>9</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C27" s="1">
-        <v/>
+        <v>132</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="D27" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E27" s="1">
         <v/>
@@ -2721,13 +2763,13 @@
         <v/>
       </c>
       <c r="G27" s="1" t="s">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="H27" s="1">
-        <v>149</v>
+        <v>41</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" x14ac:dyDescent="0.25">
@@ -2735,28 +2777,28 @@
         <v>9</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C28" s="1">
-        <v/>
+        <v>136</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="D28" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E28" s="1">
         <v/>
       </c>
-      <c r="F28" s="1">
-        <v/>
+      <c r="F28" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="H28" s="1">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" x14ac:dyDescent="0.25">
@@ -2764,13 +2806,13 @@
         <v>9</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C29" s="1">
-        <v/>
+        <v>139</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D29" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E29" s="1">
         <v/>
@@ -2779,13 +2821,13 @@
         <v/>
       </c>
       <c r="G29" s="1" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="H29" s="1">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" x14ac:dyDescent="0.25">
@@ -2793,28 +2835,28 @@
         <v>9</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>134</v>
+        <v>141</v>
+      </c>
+      <c r="C30" s="1">
+        <v/>
       </c>
       <c r="D30" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E30" s="1">
         <v/>
       </c>
-      <c r="F30" s="1">
-        <v/>
+      <c r="F30" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H30" s="1">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" x14ac:dyDescent="0.25">
@@ -2822,13 +2864,13 @@
         <v>9</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
+      </c>
+      <c r="C31" s="1">
+        <v/>
       </c>
       <c r="D31" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E31" s="1">
         <v/>
@@ -2837,13 +2879,13 @@
         <v/>
       </c>
       <c r="G31" s="1" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="H31" s="1">
-        <v>65</v>
+        <v>152</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" x14ac:dyDescent="0.25">
@@ -2851,7 +2893,7 @@
         <v>9</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C32" s="1">
         <v/>
@@ -2866,13 +2908,13 @@
         <v/>
       </c>
       <c r="G32" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H32" s="1">
-        <v>23</v>
+        <v>149</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" x14ac:dyDescent="0.25">
@@ -2880,13 +2922,13 @@
         <v>9</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>20</v>
+        <v>148</v>
+      </c>
+      <c r="C33" s="1">
+        <v/>
       </c>
       <c r="D33" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E33" s="1">
         <v/>
@@ -2895,13 +2937,13 @@
         <v/>
       </c>
       <c r="G33" s="1" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="H33" s="1">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" x14ac:dyDescent="0.25">
@@ -2909,7 +2951,7 @@
         <v>9</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C34" s="1">
         <v/>
@@ -2924,13 +2966,13 @@
         <v/>
       </c>
       <c r="G34" s="1" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="H34" s="1">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" x14ac:dyDescent="0.25">
@@ -2938,13 +2980,13 @@
         <v>9</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D35" s="1">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E35" s="1">
         <v/>
@@ -2953,13 +2995,13 @@
         <v/>
       </c>
       <c r="G35" s="1" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="H35" s="1">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" x14ac:dyDescent="0.25">
@@ -2967,13 +3009,13 @@
         <v>9</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C36" s="1">
-        <v/>
+        <v>155</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="D36" s="1">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E36" s="1">
         <v/>
@@ -2982,13 +3024,13 @@
         <v/>
       </c>
       <c r="G36" s="1" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="H36" s="1">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" x14ac:dyDescent="0.25">
@@ -2996,13 +3038,13 @@
         <v>9</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C37" s="1">
         <v/>
       </c>
       <c r="D37" s="1">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E37" s="1">
         <v/>
@@ -3011,13 +3053,13 @@
         <v/>
       </c>
       <c r="G37" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H37" s="1">
-        <v>157</v>
+        <v>23</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" x14ac:dyDescent="0.25">
@@ -3025,13 +3067,13 @@
         <v>9</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C38" s="1">
-        <v/>
+        <v>160</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D38" s="1">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E38" s="1">
         <v/>
@@ -3040,13 +3082,13 @@
         <v/>
       </c>
       <c r="G38" s="1" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="H38" s="1">
-        <v>154</v>
+        <v>52</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" x14ac:dyDescent="0.25">
@@ -3054,13 +3096,13 @@
         <v>9</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C39" s="1">
         <v/>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>33</v>
+      <c r="D39" s="1">
+        <v>13</v>
       </c>
       <c r="E39" s="1">
         <v/>
@@ -3069,13 +3111,13 @@
         <v/>
       </c>
       <c r="G39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H39" s="1">
         <v>153</v>
       </c>
-      <c r="H39" s="1">
-        <v>151</v>
-      </c>
       <c r="I39" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" x14ac:dyDescent="0.25">
@@ -3083,13 +3125,13 @@
         <v>9</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D40" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E40" s="1">
         <v/>
@@ -3098,13 +3140,13 @@
         <v/>
       </c>
       <c r="G40" s="1" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="H40" s="1">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" x14ac:dyDescent="0.25">
@@ -3112,13 +3154,13 @@
         <v>9</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C41" s="1">
         <v/>
       </c>
       <c r="D41" s="1">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="E41" s="1">
         <v/>
@@ -3127,13 +3169,13 @@
         <v/>
       </c>
       <c r="G41" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="H41" s="1">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" x14ac:dyDescent="0.25">
@@ -3141,13 +3183,13 @@
         <v>9</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C42" s="1">
         <v/>
       </c>
       <c r="D42" s="1">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E42" s="1">
         <v/>
@@ -3156,13 +3198,13 @@
         <v/>
       </c>
       <c r="G42" s="1" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="H42" s="1">
-        <v>26</v>
+        <v>157</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" x14ac:dyDescent="0.25">
@@ -3170,13 +3212,13 @@
         <v>9</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C43" s="1">
         <v/>
       </c>
       <c r="D43" s="1">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E43" s="1">
         <v/>
@@ -3185,13 +3227,13 @@
         <v/>
       </c>
       <c r="G43" s="1" t="s">
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="H43" s="1">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" x14ac:dyDescent="0.25">
@@ -3199,13 +3241,13 @@
         <v>9</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="C44" s="1">
         <v/>
       </c>
-      <c r="D44" s="1">
-        <v>13</v>
+      <c r="D44" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="E44" s="1">
         <v/>
@@ -3214,13 +3256,13 @@
         <v/>
       </c>
       <c r="G44" s="1" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="H44" s="1">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" x14ac:dyDescent="0.25">
@@ -3228,13 +3270,13 @@
         <v>9</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C45" s="1">
-        <v/>
+        <v>176</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="D45" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E45" s="1">
         <v/>
@@ -3243,13 +3285,13 @@
         <v/>
       </c>
       <c r="G45" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="H45" s="1">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" x14ac:dyDescent="0.25">
@@ -3257,13 +3299,13 @@
         <v>9</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>20</v>
+        <v>179</v>
+      </c>
+      <c r="C46" s="1">
+        <v/>
       </c>
       <c r="D46" s="1">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="E46" s="1">
         <v/>
@@ -3272,13 +3314,13 @@
         <v/>
       </c>
       <c r="G46" s="1" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="H46" s="1">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" x14ac:dyDescent="0.25">
@@ -3286,13 +3328,13 @@
         <v>9</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="C47" s="1">
         <v/>
       </c>
       <c r="D47" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E47" s="1">
         <v/>
@@ -3301,13 +3343,13 @@
         <v/>
       </c>
       <c r="G47" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H47" s="1">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" x14ac:dyDescent="0.25">
@@ -3315,13 +3357,13 @@
         <v>9</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="C48" s="1">
         <v/>
       </c>
       <c r="D48" s="1">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E48" s="1">
         <v/>
@@ -3330,13 +3372,13 @@
         <v/>
       </c>
       <c r="G48" s="1" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="H48" s="1">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" x14ac:dyDescent="0.25">
@@ -3344,13 +3386,13 @@
         <v>9</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>20</v>
+        <v>185</v>
+      </c>
+      <c r="C49" s="1">
+        <v/>
       </c>
       <c r="D49" s="1">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E49" s="1">
         <v/>
@@ -3359,13 +3401,13 @@
         <v/>
       </c>
       <c r="G49" s="1" t="s">
-        <v>177</v>
+        <v>64</v>
       </c>
       <c r="H49" s="1">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="50" x14ac:dyDescent="0.25">
@@ -3373,13 +3415,13 @@
         <v>9</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C50" s="1">
         <v/>
       </c>
       <c r="D50" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E50" s="1">
         <v/>
@@ -3388,13 +3430,13 @@
         <v/>
       </c>
       <c r="G50" s="1" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="H50" s="1">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51" x14ac:dyDescent="0.25">
@@ -3402,13 +3444,13 @@
         <v>9</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>182</v>
+        <v>20</v>
       </c>
       <c r="D51" s="1">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="E51" s="1">
         <v/>
@@ -3417,13 +3459,13 @@
         <v/>
       </c>
       <c r="G51" s="1" t="s">
-        <v>183</v>
+        <v>112</v>
       </c>
       <c r="H51" s="1">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="52" x14ac:dyDescent="0.25">
@@ -3431,13 +3473,13 @@
         <v>9</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C52" s="1">
         <v/>
       </c>
       <c r="D52" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E52" s="1">
         <v/>
@@ -3446,13 +3488,13 @@
         <v/>
       </c>
       <c r="G52" s="1" t="s">
-        <v>186</v>
+        <v>64</v>
       </c>
       <c r="H52" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="53" x14ac:dyDescent="0.25">
@@ -3460,13 +3502,13 @@
         <v>9</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>20</v>
+        <v>193</v>
+      </c>
+      <c r="C53" s="1">
+        <v/>
       </c>
       <c r="D53" s="1">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E53" s="1">
         <v/>
@@ -3475,13 +3517,13 @@
         <v/>
       </c>
       <c r="G53" s="1" t="s">
-        <v>186</v>
+        <v>64</v>
       </c>
       <c r="H53" s="1">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="54" x14ac:dyDescent="0.25">
@@ -3489,13 +3531,13 @@
         <v>9</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D54" s="1">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="E54" s="1">
         <v/>
@@ -3504,13 +3546,13 @@
         <v/>
       </c>
       <c r="G54" s="1" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="H54" s="1">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="55" x14ac:dyDescent="0.25">
@@ -3518,7 +3560,7 @@
         <v>9</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C55" s="1">
         <v/>
@@ -3533,13 +3575,13 @@
         <v/>
       </c>
       <c r="G55" s="1" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="H55" s="1">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" x14ac:dyDescent="0.25">
@@ -3547,13 +3589,13 @@
         <v>9</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C56" s="1">
-        <v/>
+        <v>200</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="D56" s="1">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="E56" s="1">
         <v/>
@@ -3562,13 +3604,13 @@
         <v/>
       </c>
       <c r="G56" s="1" t="s">
-        <v>21</v>
+        <v>202</v>
       </c>
       <c r="H56" s="1">
-        <v>25</v>
+        <v>155</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="57" x14ac:dyDescent="0.25">
@@ -3576,13 +3618,13 @@
         <v>9</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>197</v>
+        <v>204</v>
+      </c>
+      <c r="C57" s="1">
+        <v/>
       </c>
       <c r="D57" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E57" s="1">
         <v/>
@@ -3591,27 +3633,27 @@
         <v/>
       </c>
       <c r="G57" s="1" t="s">
-        <v>28</v>
+        <v>205</v>
       </c>
       <c r="H57" s="1">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="58" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>199</v>
+        <v>9</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>201</v>
+        <v>20</v>
       </c>
       <c r="D58" s="1">
-        <v/>
+        <v>13</v>
       </c>
       <c r="E58" s="1">
         <v/>
@@ -3619,28 +3661,28 @@
       <c r="F58" s="1">
         <v/>
       </c>
-      <c r="G58" s="1">
-        <v/>
+      <c r="G58" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="H58" s="1">
-        <v>7</v>
+        <v>113</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="59" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>199</v>
+        <v>9</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>204</v>
+        <v>20</v>
       </c>
       <c r="D59" s="1">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E59" s="1">
         <v/>
@@ -3649,27 +3691,27 @@
         <v/>
       </c>
       <c r="G59" s="1" t="s">
-        <v>66</v>
+        <v>205</v>
       </c>
       <c r="H59" s="1">
-        <v>164</v>
+        <v>111</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="60" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>199</v>
+        <v>9</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C60" s="1">
         <v/>
       </c>
       <c r="D60" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E60" s="1">
         <v/>
@@ -3678,27 +3720,27 @@
         <v/>
       </c>
       <c r="G60" s="1" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="H60" s="1">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="61" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>199</v>
+        <v>9</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C61" s="1">
         <v/>
       </c>
       <c r="D61" s="1">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E61" s="1">
         <v/>
@@ -3707,27 +3749,27 @@
         <v/>
       </c>
       <c r="G61" s="1" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="H61" s="1">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="62" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>199</v>
+        <v>9</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C62" s="1">
-        <v/>
+        <v>215</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="D62" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E62" s="1">
         <v/>
@@ -3736,24 +3778,24 @@
         <v/>
       </c>
       <c r="G62" s="1" t="s">
-        <v>66</v>
+        <v>217</v>
       </c>
       <c r="H62" s="1">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="63" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>199</v>
+        <v>9</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C63" s="1">
-        <v/>
+        <v>219</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D63" s="1">
         <v>1</v>
@@ -3765,27 +3807,27 @@
         <v/>
       </c>
       <c r="G63" s="1" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H63" s="1">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="64" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C64" s="1">
-        <v/>
+        <v>222</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="D64" s="1">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E64" s="1">
         <v/>
@@ -3793,28 +3835,28 @@
       <c r="F64" s="1">
         <v/>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>215</v>
+      <c r="G64" s="1">
+        <v/>
       </c>
       <c r="H64" s="1">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="65" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>199</v>
+        <v>52</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="D65" s="1">
-        <v>5</v>
+        <v/>
       </c>
       <c r="E65" s="1">
         <v/>
@@ -3822,57 +3864,57 @@
       <c r="F65" s="1">
         <v/>
       </c>
-      <c r="G65" s="1" t="s">
-        <v>17</v>
+      <c r="G65" s="1">
+        <v/>
       </c>
       <c r="H65" s="1">
-        <v>129</v>
+        <v>8</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="66" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>199</v>
+        <v>52</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C66" s="1">
-        <v/>
+        <v>228</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="D66" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E66" s="1">
         <v/>
       </c>
-      <c r="F66" s="1">
-        <v/>
+      <c r="F66" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="H66" s="1">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="67" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C67" s="1">
-        <v/>
+        <v>233</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>234</v>
       </c>
       <c r="D67" s="1">
-        <v>8</v>
+        <v/>
       </c>
       <c r="E67" s="1">
         <v/>
@@ -3880,25 +3922,25 @@
       <c r="F67" s="1">
         <v/>
       </c>
-      <c r="G67" s="1" t="s">
-        <v>17</v>
+      <c r="G67" s="1">
+        <v/>
       </c>
       <c r="H67" s="1">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="68" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="D68" s="1">
         <v>1</v>
@@ -3906,57 +3948,57 @@
       <c r="E68" s="1">
         <v/>
       </c>
-      <c r="F68" s="1">
-        <v/>
+      <c r="F68" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H68" s="1">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="69" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>52</v>
+        <v>232</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>228</v>
+        <v>98</v>
       </c>
       <c r="D69" s="1">
-        <v/>
+        <v>5</v>
       </c>
       <c r="E69" s="1">
         <v/>
       </c>
-      <c r="F69" s="1">
-        <v/>
-      </c>
-      <c r="G69" s="1">
-        <v/>
+      <c r="F69" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="H69" s="1">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
     </row>
     <row r="70" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>52</v>
+        <v>232</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C70" s="1">
-        <v/>
+        <v>241</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="D70" s="1">
         <v>8</v>
@@ -3965,56 +4007,56 @@
         <v/>
       </c>
       <c r="F70" s="1" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H70" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="71" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>52</v>
+        <v>232</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C71" s="1">
-        <v/>
+        <v>245</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="D71" s="1">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E71" s="1">
         <v/>
       </c>
       <c r="F71" s="1" t="s">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="H71" s="1">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
     </row>
     <row r="72" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>52</v>
+        <v>232</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="D72" s="1">
         <v>8</v>
@@ -4023,114 +4065,114 @@
         <v/>
       </c>
       <c r="F72" s="1" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H72" s="1">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
     </row>
     <row r="73" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>241</v>
+        <v>81</v>
       </c>
       <c r="D73" s="1">
-        <v/>
+        <v>5</v>
       </c>
       <c r="E73" s="1">
         <v/>
       </c>
-      <c r="F73" s="1">
-        <v/>
-      </c>
-      <c r="G73" s="1">
-        <v/>
+      <c r="F73" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="H73" s="1">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
     </row>
     <row r="74" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="D74" s="1">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E74" s="1">
         <v/>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>17</v>
+      <c r="F74" s="1">
+        <v/>
+      </c>
+      <c r="G74" s="1">
+        <v/>
       </c>
       <c r="H74" s="1">
-        <v>146</v>
+        <v>9</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="75" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>27</v>
+        <v>257</v>
       </c>
       <c r="D75" s="1">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E75" s="1">
         <v/>
       </c>
-      <c r="F75" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>28</v>
+      <c r="F75" s="1">
+        <v/>
+      </c>
+      <c r="G75" s="1">
+        <v/>
       </c>
       <c r="H75" s="1">
-        <v>161</v>
+        <v>6</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
     </row>
     <row r="76" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C76" s="1">
-        <v/>
+        <v>259</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="D76" s="1">
         <v>13</v>
@@ -4139,172 +4181,172 @@
         <v/>
       </c>
       <c r="F76" s="1" t="s">
-        <v>54</v>
+        <v>243</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="H76" s="1">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
     </row>
     <row r="77" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C77" s="1">
-        <v/>
+        <v>263</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="D77" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E77" s="1">
         <v/>
       </c>
       <c r="F77" s="1" t="s">
-        <v>54</v>
+        <v>264</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>252</v>
+        <v>64</v>
       </c>
       <c r="H77" s="1">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="78" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C78" s="1">
-        <v/>
+        <v>266</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="D78" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E78" s="1">
         <v/>
       </c>
       <c r="F78" s="1" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="H78" s="1">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
     </row>
     <row r="79" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>258</v>
+        <v>98</v>
       </c>
       <c r="D79" s="1">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E79" s="1">
         <v/>
       </c>
-      <c r="F79" s="1">
-        <v/>
-      </c>
-      <c r="G79" s="1">
-        <v/>
+      <c r="F79" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="H79" s="1">
-        <v>9</v>
+        <v>161</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
     </row>
     <row r="80" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="D80" s="1">
-        <v/>
+        <v>13</v>
       </c>
       <c r="E80" s="1">
         <v/>
       </c>
-      <c r="F80" s="1">
-        <v/>
-      </c>
-      <c r="G80" s="1">
-        <v/>
+      <c r="F80" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H80" s="1">
-        <v>6</v>
+        <v>158</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
     </row>
     <row r="81" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>27</v>
+        <v>272</v>
       </c>
       <c r="D81" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E81" s="1">
         <v/>
       </c>
       <c r="F81" s="1" t="s">
-        <v>234</v>
+        <v>54</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>28</v>
+        <v>275</v>
       </c>
       <c r="H81" s="1">
-        <v>73</v>
+        <v>168</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
     </row>
     <row r="82" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>267</v>
+        <v>27</v>
       </c>
       <c r="D82" s="1">
         <v>1</v>
@@ -4313,27 +4355,27 @@
         <v/>
       </c>
       <c r="F82" s="1" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H82" s="1">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
     </row>
     <row r="83" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="D83" s="1">
         <v>1</v>
@@ -4341,31 +4383,31 @@
       <c r="E83" s="1">
         <v/>
       </c>
-      <c r="F83" s="1">
-        <v/>
-      </c>
-      <c r="G83" s="1">
-        <v/>
+      <c r="F83" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="H83" s="1">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
     </row>
     <row r="84" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="D84" s="1">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E84" s="1">
         <v/>
@@ -4373,86 +4415,86 @@
       <c r="F84" s="1">
         <v/>
       </c>
-      <c r="G84" s="1" t="s">
-        <v>13</v>
+      <c r="G84" s="1">
+        <v/>
       </c>
       <c r="H84" s="1">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
     </row>
     <row r="85" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>20</v>
+        <v>287</v>
       </c>
       <c r="D85" s="1">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E85" s="1">
         <v/>
       </c>
-      <c r="F85" s="1" t="s">
-        <v>234</v>
+      <c r="F85" s="1">
+        <v/>
       </c>
       <c r="G85" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H85" s="1">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
     </row>
     <row r="86" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>278</v>
+        <v>20</v>
       </c>
       <c r="D86" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E86" s="1">
         <v/>
       </c>
       <c r="F86" s="1" t="s">
-        <v>54</v>
+        <v>243</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H86" s="1">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
     </row>
     <row r="87" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C87" s="1">
-        <v/>
+        <v>291</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="D87" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E87" s="1">
         <v/>
@@ -4461,50 +4503,50 @@
         <v>54</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H87" s="1">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
     </row>
     <row r="88" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>20</v>
+        <v>294</v>
+      </c>
+      <c r="C88" s="1">
+        <v/>
       </c>
       <c r="D88" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E88" s="1">
         <v/>
       </c>
-      <c r="F88" s="1">
-        <v/>
+      <c r="F88" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="H88" s="1">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="89" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>20</v>
@@ -4519,24 +4561,24 @@
         <v/>
       </c>
       <c r="G89" s="1" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="H89" s="1">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
     </row>
     <row r="90" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>287</v>
+        <v>20</v>
       </c>
       <c r="D90" s="1">
         <v>1</v>
@@ -4544,86 +4586,86 @@
       <c r="E90" s="1">
         <v/>
       </c>
-      <c r="F90" s="1" t="s">
-        <v>234</v>
+      <c r="F90" s="1">
+        <v/>
       </c>
       <c r="G90" s="1" t="s">
-        <v>13</v>
+        <v>205</v>
       </c>
       <c r="H90" s="1">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
     </row>
     <row r="91" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="D91" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E91" s="1">
         <v/>
       </c>
       <c r="F91" s="1" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H91" s="1">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
     </row>
     <row r="92" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>20</v>
+        <v>304</v>
       </c>
       <c r="D92" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E92" s="1">
         <v/>
       </c>
       <c r="F92" s="1" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H92" s="1">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
     </row>
     <row r="93" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>295</v>
+        <v>20</v>
       </c>
       <c r="D93" s="1">
         <v>1</v>
@@ -4632,27 +4674,27 @@
         <v/>
       </c>
       <c r="F93" s="1" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H93" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
     </row>
     <row r="94" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>20</v>
+        <v>309</v>
       </c>
       <c r="D94" s="1">
         <v>1</v>
@@ -4661,27 +4703,27 @@
         <v/>
       </c>
       <c r="F94" s="1" t="s">
-        <v>54</v>
+        <v>243</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H94" s="1">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
     </row>
     <row r="95" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D95" s="1">
         <v>1</v>
@@ -4693,24 +4735,24 @@
         <v>54</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H95" s="1">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
     </row>
     <row r="96" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>302</v>
+        <v>27</v>
       </c>
       <c r="D96" s="1">
         <v>1</v>
@@ -4719,85 +4761,85 @@
         <v/>
       </c>
       <c r="F96" s="1" t="s">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H96" s="1">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
     </row>
     <row r="97" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>20</v>
+        <v>316</v>
       </c>
       <c r="D97" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E97" s="1">
         <v/>
       </c>
       <c r="F97" s="1" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H97" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="98" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>307</v>
+        <v>20</v>
       </c>
       <c r="D98" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E98" s="1">
         <v/>
       </c>
       <c r="F98" s="1" t="s">
-        <v>234</v>
+        <v>54</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H98" s="1">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
     </row>
     <row r="99" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>27</v>
+        <v>321</v>
       </c>
       <c r="D99" s="1">
         <v>1</v>
@@ -4806,27 +4848,27 @@
         <v/>
       </c>
       <c r="F99" s="1" t="s">
-        <v>54</v>
+        <v>243</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H99" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
     </row>
     <row r="100" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C100" s="1">
-        <v/>
+        <v>323</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D100" s="1">
         <v>1</v>
@@ -4835,27 +4877,27 @@
         <v/>
       </c>
       <c r="F100" s="1" t="s">
-        <v>234</v>
+        <v>54</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H100" s="1">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
     </row>
     <row r="101" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>24</v>
+        <v>325</v>
+      </c>
+      <c r="C101" s="1">
+        <v/>
       </c>
       <c r="D101" s="1">
         <v>1</v>
@@ -4864,27 +4906,27 @@
         <v/>
       </c>
       <c r="F101" s="1" t="s">
-        <v>123</v>
+        <v>243</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H101" s="1">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
     </row>
     <row r="102" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D102" s="1">
         <v>1</v>
@@ -4893,27 +4935,27 @@
         <v/>
       </c>
       <c r="F102" s="1" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H102" s="1">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
     </row>
     <row r="103" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D103" s="1">
         <v>1</v>
@@ -4922,27 +4964,27 @@
         <v/>
       </c>
       <c r="F103" s="1" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H103" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
     </row>
     <row r="104" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>320</v>
+        <v>24</v>
       </c>
       <c r="D104" s="1">
         <v>1</v>
@@ -4951,27 +4993,27 @@
         <v/>
       </c>
       <c r="F104" s="1" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H104" s="1">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
     </row>
     <row r="105" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="D105" s="1">
         <v>1</v>
@@ -4980,85 +5022,85 @@
         <v/>
       </c>
       <c r="F105" s="1" t="s">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>324</v>
+        <v>28</v>
       </c>
       <c r="H105" s="1">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
     </row>
     <row r="106" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C106" s="1">
-        <v/>
+        <v>336</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>337</v>
       </c>
       <c r="D106" s="1">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E106" s="1">
         <v/>
       </c>
       <c r="F106" s="1" t="s">
-        <v>234</v>
+        <v>12</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>21</v>
+        <v>338</v>
       </c>
       <c r="H106" s="1">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
     </row>
     <row r="107" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>20</v>
+        <v>340</v>
+      </c>
+      <c r="C107" s="1">
+        <v/>
       </c>
       <c r="D107" s="1">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E107" s="1">
         <v/>
       </c>
       <c r="F107" s="1" t="s">
-        <v>54</v>
+        <v>243</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H107" s="1">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
     </row>
     <row r="108" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D108" s="1">
         <v>1</v>
@@ -5066,86 +5108,86 @@
       <c r="E108" s="1">
         <v/>
       </c>
-      <c r="F108" s="1">
-        <v/>
+      <c r="F108" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H108" s="1">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
     </row>
     <row r="109" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D109" s="1">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E109" s="1">
         <v/>
       </c>
-      <c r="F109" s="1" t="s">
-        <v>234</v>
+      <c r="F109" s="1">
+        <v/>
       </c>
       <c r="G109" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H109" s="1">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
     </row>
     <row r="110" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C110" s="1">
-        <v/>
+        <v>346</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D110" s="1">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E110" s="1">
         <v/>
       </c>
       <c r="F110" s="1" t="s">
-        <v>54</v>
+        <v>243</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H110" s="1">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
     </row>
     <row r="111" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>337</v>
+        <v>348</v>
+      </c>
+      <c r="C111" s="1">
+        <v/>
       </c>
       <c r="D111" s="1">
         <v>1</v>
@@ -5154,27 +5196,27 @@
         <v/>
       </c>
       <c r="F111" s="1" t="s">
-        <v>234</v>
+        <v>54</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>338</v>
+        <v>13</v>
       </c>
       <c r="H111" s="1">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
     </row>
     <row r="112" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>20</v>
+        <v>351</v>
       </c>
       <c r="D112" s="1">
         <v>1</v>
@@ -5183,85 +5225,85 @@
         <v/>
       </c>
       <c r="F112" s="1" t="s">
-        <v>123</v>
+        <v>243</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>21</v>
+        <v>352</v>
       </c>
       <c r="H112" s="1">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
     </row>
     <row r="113" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>343</v>
+        <v>20</v>
       </c>
       <c r="D113" s="1">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E113" s="1">
         <v/>
       </c>
       <c r="F113" s="1" t="s">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H113" s="1">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
     </row>
     <row r="114" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>27</v>
+        <v>357</v>
       </c>
       <c r="D114" s="1">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E114" s="1">
         <v/>
       </c>
       <c r="F114" s="1" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H114" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="115" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C115" s="1">
-        <v/>
+        <v>359</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D115" s="1">
         <v>1</v>
@@ -5270,24 +5312,24 @@
         <v/>
       </c>
       <c r="F115" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G115" s="1">
-        <v/>
+        <v>243</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="H115" s="1">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
     </row>
     <row r="116" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="C116" s="1">
         <v/>
@@ -5301,22 +5343,22 @@
       <c r="F116" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G116" s="1" t="s">
-        <v>21</v>
+      <c r="G116" s="1">
+        <v/>
       </c>
       <c r="H116" s="1">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
     </row>
     <row r="117" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="C117" s="1">
         <v/>
@@ -5334,18 +5376,18 @@
         <v>21</v>
       </c>
       <c r="H117" s="1">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
     </row>
     <row r="118" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="C118" s="1">
         <v/>
@@ -5363,18 +5405,18 @@
         <v>21</v>
       </c>
       <c r="H118" s="1">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
     </row>
     <row r="119" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="C119" s="1">
         <v/>
@@ -5392,21 +5434,21 @@
         <v>21</v>
       </c>
       <c r="H119" s="1">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
     </row>
     <row r="120" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>20</v>
+        <v>369</v>
+      </c>
+      <c r="C120" s="1">
+        <v/>
       </c>
       <c r="D120" s="1">
         <v>1</v>
@@ -5415,27 +5457,27 @@
         <v/>
       </c>
       <c r="F120" s="1" t="s">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H120" s="1">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
     </row>
     <row r="121" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>360</v>
+        <v>20</v>
       </c>
       <c r="D121" s="1">
         <v>1</v>
@@ -5444,27 +5486,27 @@
         <v/>
       </c>
       <c r="F121" s="1" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="H121" s="1">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
     </row>
     <row r="122" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="D122" s="1">
         <v>1</v>
@@ -5473,27 +5515,27 @@
         <v/>
       </c>
       <c r="F122" s="1" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="H122" s="1">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="123" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>27</v>
+        <v>377</v>
       </c>
       <c r="D123" s="1">
         <v>1</v>
@@ -5502,27 +5544,27 @@
         <v/>
       </c>
       <c r="F123" s="1" t="s">
-        <v>234</v>
+        <v>54</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H123" s="1">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
     </row>
     <row r="124" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>368</v>
+        <v>27</v>
       </c>
       <c r="D124" s="1">
         <v>1</v>
@@ -5531,27 +5573,27 @@
         <v/>
       </c>
       <c r="F124" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G124" s="1">
-        <v/>
+        <v>243</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="H124" s="1">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
     </row>
     <row r="125" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="D125" s="1">
         <v>1</v>
@@ -5560,27 +5602,27 @@
         <v/>
       </c>
       <c r="F125" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>28</v>
+        <v>243</v>
+      </c>
+      <c r="G125" s="1">
+        <v/>
       </c>
       <c r="H125" s="1">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
     </row>
     <row r="126" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="D126" s="1">
         <v>1</v>
@@ -5589,27 +5631,27 @@
         <v/>
       </c>
       <c r="F126" s="1" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H126" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
     </row>
     <row r="127" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="D127" s="1">
         <v>1</v>
@@ -5618,27 +5660,27 @@
         <v/>
       </c>
       <c r="F127" s="1" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>378</v>
+        <v>28</v>
       </c>
       <c r="H127" s="1">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
     </row>
     <row r="128" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="D128" s="1">
         <v>1</v>
@@ -5647,27 +5689,27 @@
         <v/>
       </c>
       <c r="F128" s="1" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>13</v>
+        <v>392</v>
       </c>
       <c r="H128" s="1">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
     </row>
     <row r="129" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="D129" s="1">
         <v>1</v>
@@ -5676,85 +5718,85 @@
         <v/>
       </c>
       <c r="F129" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G129" s="1">
-        <v/>
+        <v>243</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="H129" s="1">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
     </row>
     <row r="130" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>386</v>
+        <v>277</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="C130" s="1">
-        <v/>
+        <v>397</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>398</v>
       </c>
       <c r="D130" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E130" s="1">
         <v/>
       </c>
-      <c r="F130" s="1">
-        <v/>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>66</v>
+      <c r="F130" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G130" s="1">
+        <v/>
       </c>
       <c r="H130" s="1">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
     </row>
     <row r="131" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>390</v>
+        <v>401</v>
+      </c>
+      <c r="C131" s="1">
+        <v/>
       </c>
       <c r="D131" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E131" s="1">
         <v/>
       </c>
-      <c r="F131" s="1" t="s">
-        <v>123</v>
+      <c r="F131" s="1">
+        <v/>
       </c>
       <c r="G131" s="1" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="H131" s="1">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
     </row>
     <row r="132" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="C132" s="1">
-        <v/>
+        <v>403</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>404</v>
       </c>
       <c r="D132" s="1">
         <v>1</v>
@@ -5762,28 +5804,28 @@
       <c r="E132" s="1">
         <v/>
       </c>
-      <c r="F132" s="1">
-        <v/>
+      <c r="F132" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H132" s="1">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
     </row>
     <row r="133" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>395</v>
+        <v>406</v>
+      </c>
+      <c r="C133" s="1">
+        <v/>
       </c>
       <c r="D133" s="1">
         <v>1</v>
@@ -5798,21 +5840,21 @@
         <v>28</v>
       </c>
       <c r="H133" s="1">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
     </row>
     <row r="134" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>27</v>
+        <v>409</v>
       </c>
       <c r="D134" s="1">
         <v>1</v>
@@ -5820,28 +5862,28 @@
       <c r="E134" s="1">
         <v/>
       </c>
-      <c r="F134" s="1" t="s">
-        <v>123</v>
+      <c r="F134" s="1">
+        <v/>
       </c>
       <c r="G134" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H134" s="1">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
     </row>
     <row r="135" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C135" s="1">
-        <v/>
+        <v>411</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D135" s="1">
         <v>1</v>
@@ -5849,28 +5891,28 @@
       <c r="E135" s="1">
         <v/>
       </c>
-      <c r="F135" s="1">
-        <v/>
+      <c r="F135" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H135" s="1">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
     </row>
     <row r="136" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>20</v>
+        <v>413</v>
+      </c>
+      <c r="C136" s="1">
+        <v/>
       </c>
       <c r="D136" s="1">
         <v>1</v>
@@ -5882,24 +5924,24 @@
         <v/>
       </c>
       <c r="G136" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H136" s="1">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="137" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>404</v>
+        <v>20</v>
       </c>
       <c r="D137" s="1">
         <v>1</v>
@@ -5907,28 +5949,28 @@
       <c r="E137" s="1">
         <v/>
       </c>
-      <c r="F137" s="1" t="s">
-        <v>123</v>
+      <c r="F137" s="1">
+        <v/>
       </c>
       <c r="G137" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H137" s="1">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
     </row>
     <row r="138" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="D138" s="1">
         <v>1</v>
@@ -5937,111 +5979,111 @@
         <v/>
       </c>
       <c r="F138" s="1" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H138" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
     </row>
     <row r="139" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>27</v>
+        <v>421</v>
       </c>
       <c r="D139" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E139" s="1">
         <v/>
       </c>
       <c r="F139" s="1" t="s">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H139" s="1">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="140" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>412</v>
+        <v>27</v>
       </c>
       <c r="D140" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E140" s="1">
         <v/>
       </c>
-      <c r="F140" s="1">
-        <v/>
+      <c r="F140" s="1" t="s">
+        <v>243</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="H140" s="1">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
     </row>
     <row r="141" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>27</v>
+        <v>426</v>
       </c>
       <c r="D141" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E141" s="1">
         <v/>
       </c>
-      <c r="F141" s="1" t="s">
-        <v>415</v>
+      <c r="F141" s="1">
+        <v/>
       </c>
       <c r="G141" s="1" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="H141" s="1">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
     </row>
     <row r="142" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>27</v>
@@ -6053,59 +6095,59 @@
         <v/>
       </c>
       <c r="F142" s="1" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H142" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
     </row>
     <row r="143" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="C143" s="1">
-        <v/>
+        <v>431</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D143" s="1">
-        <v/>
+        <v>3</v>
       </c>
       <c r="E143" s="1">
         <v/>
       </c>
-      <c r="F143" s="1">
-        <v/>
+      <c r="F143" s="1" t="s">
+        <v>429</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H143" s="1">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="144" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="C144" s="1">
         <v/>
       </c>
       <c r="D144" s="1">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E144" s="1">
         <v/>
@@ -6114,82 +6156,82 @@
         <v/>
       </c>
       <c r="G144" s="1" t="s">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="H144" s="1">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
     </row>
     <row r="145" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="C145" s="1">
         <v/>
       </c>
       <c r="D145" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E145" s="1">
         <v/>
       </c>
-      <c r="F145" s="1" t="s">
-        <v>234</v>
+      <c r="F145" s="1">
+        <v/>
       </c>
       <c r="G145" s="1" t="s">
-        <v>21</v>
+        <v>205</v>
       </c>
       <c r="H145" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
     </row>
     <row r="146" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="C146" s="1">
         <v/>
       </c>
       <c r="D146" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E146" s="1">
         <v/>
       </c>
       <c r="F146" s="1" t="s">
-        <v>415</v>
+        <v>243</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H146" s="1">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
     </row>
     <row r="147" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>428</v>
+        <v>439</v>
+      </c>
+      <c r="C147" s="1">
+        <v/>
       </c>
       <c r="D147" s="1">
         <v>1</v>
@@ -6198,190 +6240,219 @@
         <v/>
       </c>
       <c r="F147" s="1" t="s">
-        <v>54</v>
+        <v>429</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H147" s="1">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
     </row>
     <row r="148" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>24</v>
+        <v>442</v>
       </c>
       <c r="D148" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E148" s="1">
         <v/>
       </c>
       <c r="F148" s="1" t="s">
-        <v>415</v>
+        <v>54</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H148" s="1">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="149" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C149" s="1">
-        <v/>
+        <v>444</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D149" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E149" s="1">
         <v/>
       </c>
       <c r="F149" s="1" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="H149" s="1">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
     </row>
     <row r="150" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="C150" s="1">
         <v/>
       </c>
       <c r="D150" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E150" s="1">
         <v/>
       </c>
       <c r="F150" s="1" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="H150" s="1">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="151" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="C151" s="1">
         <v/>
       </c>
       <c r="D151" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E151" s="1">
         <v/>
       </c>
       <c r="F151" s="1" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H151" s="1">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="152" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>439</v>
+        <v>450</v>
+      </c>
+      <c r="C152" s="1">
+        <v/>
       </c>
       <c r="D152" s="1">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E152" s="1">
         <v/>
       </c>
       <c r="F152" s="1" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="G152" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H152" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
     </row>
     <row r="153" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="C153" s="1">
-        <v/>
+        <v>452</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>453</v>
       </c>
       <c r="D153" s="1">
+        <v>20</v>
+      </c>
+      <c r="E153" s="1">
+        <v/>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H153" s="1">
+        <v>20</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="154" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C154" s="1">
+        <v/>
+      </c>
+      <c r="D154" s="1">
         <v>5</v>
       </c>
-      <c r="E153" s="1">
-        <v/>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H153" s="1">
+      <c r="E154" s="1">
+        <v/>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H154" s="1">
         <v>14</v>
       </c>
-      <c r="I153" s="1" t="s">
-        <v>443</v>
+      <c r="I154" s="1" t="s">
+        <v>457</v>
       </c>
     </row>
   </sheetData>
